--- a/Excel/Heat Load Calculation.xlsx
+++ b/Excel/Heat Load Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\Aircon\Aircon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A05777-B148-4692-9F7D-7D2F818F3193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F387FE-33C9-4629-B1CA-8F161BAB1D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXTERNAL WALL LOAD" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$4:$B$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="554">
   <si>
     <t>Space</t>
   </si>
@@ -2619,6 +2620,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2679,6 +2682,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2687,9 +2696,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2703,11 +2709,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
@@ -2807,14 +2808,1235 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2857,1966 +4079,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -7300,6 +6562,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -8281,6 +7553,725 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
         <vertical style="medium">
           <color auto="1"/>
         </vertical>
@@ -9340,6 +9331,16 @@
           <color auto="1"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -10276,18 +10277,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A3:H44" totalsRowShown="0" headerRowDxfId="289" dataDxfId="287" headerRowBorderDxfId="288" tableBorderDxfId="286" totalsRowBorderDxfId="285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A3:H44" totalsRowShown="0" headerRowDxfId="253" dataDxfId="251" headerRowBorderDxfId="252" tableBorderDxfId="250" totalsRowBorderDxfId="249">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SPACE" dataDxfId="284"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Equipment" dataDxfId="283"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="WATTAGE" dataDxfId="282"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Cs" dataDxfId="281"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cl" dataDxfId="280"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CLF" dataDxfId="279"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Qs (W)" dataDxfId="278">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SPACE" dataDxfId="248"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Equipment" dataDxfId="247"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="WATTAGE" dataDxfId="246"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Cs" dataDxfId="245"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cl" dataDxfId="244"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CLF" dataDxfId="243"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Qs (W)" dataDxfId="242">
       <calculatedColumnFormula>D4*C4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Ql (W)" dataDxfId="277">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Ql (W)" dataDxfId="241">
       <calculatedColumnFormula>C4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10296,18 +10297,18 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A49:H89" totalsRowShown="0" headerRowDxfId="276" headerRowBorderDxfId="275" tableBorderDxfId="274" totalsRowBorderDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A49:H89" totalsRowShown="0" headerRowDxfId="240" headerRowBorderDxfId="239" tableBorderDxfId="238" totalsRowBorderDxfId="237">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SPACE" dataDxfId="272"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Equipment" dataDxfId="271"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Wattage" dataDxfId="270"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="CS" dataDxfId="269"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Cl" dataDxfId="268"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CLF" dataDxfId="267"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Qs (W)" dataDxfId="266">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SPACE" dataDxfId="236"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Equipment" dataDxfId="235"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Wattage" dataDxfId="234"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="CS" dataDxfId="233"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Cl" dataDxfId="232"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CLF" dataDxfId="231"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Qs (W)" dataDxfId="230">
       <calculatedColumnFormula>D50*C50*F50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Ql (W)" dataDxfId="265">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Ql (W)" dataDxfId="229">
       <calculatedColumnFormula>E50*C50</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10316,18 +10317,18 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A94:H127" totalsRowShown="0" headerRowDxfId="264" headerRowBorderDxfId="263" tableBorderDxfId="262" totalsRowBorderDxfId="261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A94:H127" totalsRowShown="0" headerRowDxfId="228" headerRowBorderDxfId="227" tableBorderDxfId="226" totalsRowBorderDxfId="225">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SPACE" dataDxfId="260"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Equipment" dataDxfId="259"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Wattage" dataDxfId="258"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Cs" dataDxfId="257"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Cl" dataDxfId="256"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CLF" dataDxfId="255"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Qs (W)" dataDxfId="254">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SPACE" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Equipment" dataDxfId="223"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Wattage" dataDxfId="222"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Cs" dataDxfId="221"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Cl" dataDxfId="220"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CLF" dataDxfId="219"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Qs (W)" dataDxfId="218">
       <calculatedColumnFormula>C95*D95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Qw (W)" dataDxfId="253">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Qw (W)" dataDxfId="217">
       <calculatedColumnFormula>E95*C95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10336,18 +10337,18 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A4:H46" totalsRowShown="0" headerRowDxfId="252" headerRowBorderDxfId="251" tableBorderDxfId="250" totalsRowBorderDxfId="249">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A4:H46" totalsRowShown="0" headerRowDxfId="216" headerRowBorderDxfId="215" tableBorderDxfId="214" totalsRowBorderDxfId="213">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SPACE" dataDxfId="248"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="U" dataDxfId="247"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Area (m2)" dataDxfId="246"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="CLTDmax" dataDxfId="245"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Ti" dataDxfId="244"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Tave" dataDxfId="243"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="CLTDadj" dataDxfId="242">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SPACE" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="U" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Area (m2)" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="CLTDmax" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Ti" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Tave" dataDxfId="207"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="CLTDadj" dataDxfId="206">
       <calculatedColumnFormula>((D5*0.75)+(25-E5)+(F5-29))*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Q(W)" dataDxfId="241">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Q(W)" dataDxfId="205">
       <calculatedColumnFormula>B5*C5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10356,17 +10357,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A94:G197" totalsRowShown="0" headerRowDxfId="240" headerRowBorderDxfId="239" tableBorderDxfId="238" totalsRowBorderDxfId="237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A94:G197" totalsRowShown="0" headerRowDxfId="203" headerRowBorderDxfId="202" tableBorderDxfId="201" totalsRowBorderDxfId="200">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Space" dataDxfId="236"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Spaces" dataDxfId="235"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="U" dataDxfId="234"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="A" dataDxfId="233">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Space" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Spaces" dataDxfId="198"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="U" dataDxfId="197"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="A" dataDxfId="196">
       <calculatedColumnFormula>References!AM4-References!AL4-References!AK4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Ti" dataDxfId="232"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Ti2" dataDxfId="231"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Q" dataDxfId="230">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Ti" dataDxfId="195"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Ti2" dataDxfId="194"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Q" dataDxfId="193">
       <calculatedColumnFormula>ABS(C95*D95*(F95-E95))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10375,17 +10376,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A201:G295" totalsRowShown="0" headerRowDxfId="229" headerRowBorderDxfId="228" tableBorderDxfId="227" totalsRowBorderDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A201:G295" totalsRowShown="0" headerRowDxfId="192" headerRowBorderDxfId="191" tableBorderDxfId="190" totalsRowBorderDxfId="189">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Space" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Spaces" dataDxfId="224"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="U" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="A" dataDxfId="222">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Space" dataDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Spaces" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="U" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="A" dataDxfId="185">
       <calculatedColumnFormula>References!AQ4-References!AP4-References!AO4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Ti" dataDxfId="221"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Ti2" dataDxfId="220"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Q" dataDxfId="219">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Ti" dataDxfId="184"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Ti2" dataDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Q" dataDxfId="182">
       <calculatedColumnFormula>ABS(C202*D202*(F202-E202))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10394,17 +10395,17 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A3:G89" totalsRowShown="0" headerRowDxfId="218" headerRowBorderDxfId="217" tableBorderDxfId="216" totalsRowBorderDxfId="215">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A3:G89" totalsRowShown="0" headerRowDxfId="181" headerRowBorderDxfId="180" tableBorderDxfId="179" totalsRowBorderDxfId="178">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Space" dataDxfId="214"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Spaces" dataDxfId="213"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="U" dataDxfId="212"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="A" dataDxfId="211">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Space" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Spaces" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="U" dataDxfId="175"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="A" dataDxfId="174">
       <calculatedColumnFormula>References!AI4-References!AH4-References!AG4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Ti" dataDxfId="210"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Ti2" dataDxfId="209"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Q" dataDxfId="208">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Ti" dataDxfId="173"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Ti2" dataDxfId="172"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Q" dataDxfId="171">
       <calculatedColumnFormula>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10413,21 +10414,21 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:I40" totalsRowShown="0" headerRowDxfId="207" dataDxfId="205" headerRowBorderDxfId="206" tableBorderDxfId="204" totalsRowBorderDxfId="203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:I40" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SPACE" dataDxfId="202" totalsRowDxfId="201"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Occ" dataDxfId="200" totalsRowDxfId="199"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="L/s" dataDxfId="198" totalsRowDxfId="197">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SPACE" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Occ" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="L/s" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula>B4*References!AS4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="To" dataDxfId="196" totalsRowDxfId="195"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Ti" dataDxfId="194" totalsRowDxfId="193"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Wo" dataDxfId="192" totalsRowDxfId="191"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Wi" dataDxfId="190" totalsRowDxfId="189"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Qs (W)" dataDxfId="188" totalsRowDxfId="187">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="To" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Ti" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Wo" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Wi" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Qs (W)" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula>1.232*C4*(D4-E4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Qw (W)" dataDxfId="186" totalsRowDxfId="185">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Qw (W)" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>3000*C4*(F4-G4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10436,23 +10437,23 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A45:I89" totalsRowShown="0" headerRowDxfId="184" dataDxfId="182" headerRowBorderDxfId="183" tableBorderDxfId="181" totalsRowBorderDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A45:I89" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SPACE" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Occ." dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="L/s" dataDxfId="177">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SPACE" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Occ." dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="L/s" dataDxfId="140">
       <calculatedColumnFormula>B46*References!AT4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="To" dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Ti" dataDxfId="175"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Wo" dataDxfId="174"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Wi" dataDxfId="173">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="To" dataDxfId="139"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Ti" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Wo" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Wi" dataDxfId="136">
       <calculatedColumnFormula>_xlfn.IFS(E46=22.5,0.00848061,E46=22,0.00821976,E46=24,0.00929323)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="Qs(W)" dataDxfId="172">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="Qs(W)" dataDxfId="135">
       <calculatedColumnFormula>1.232*C46*(D46-E46)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="Ql(W)" dataDxfId="171">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="Ql(W)" dataDxfId="134">
       <calculatedColumnFormula>3000*C46*(F46-G46)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10461,23 +10462,23 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A94:I124" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A94:I124" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Space" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Occ." dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="L/s" dataDxfId="163">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Space" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Occ." dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="L/s" dataDxfId="126">
       <calculatedColumnFormula>B95*References!AU4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="To" dataDxfId="162"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Ti" dataDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Wo" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Wi" dataDxfId="159">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="To" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Ti" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Wo" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Wi" dataDxfId="122">
       <calculatedColumnFormula>_xlfn.IFS(E95=22.5,0.00848031,E95=24,0.009293235,E95=22,0.00821976)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Qs(W)" dataDxfId="158">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Qs(W)" dataDxfId="121">
       <calculatedColumnFormula>1.232*C95*(D95-E95)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Ql(W)" dataDxfId="157">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Ql(W)" dataDxfId="120">
       <calculatedColumnFormula>3000*C95*(F95-G95)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10517,18 +10518,18 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table20" displayName="Table20" ref="A94:H124" totalsRowShown="0" headerRowDxfId="156" dataDxfId="154" headerRowBorderDxfId="155" tableBorderDxfId="153" totalsRowBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table20" displayName="Table20" ref="A94:H124" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SPACE" dataDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Occ" dataDxfId="150"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Gain/person" dataDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Sensible" dataDxfId="148"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Latent" dataDxfId="147"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CLF" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Qs (W)" dataDxfId="145">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SPACE" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Occ" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Gain/person" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Sensible" dataDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Latent" dataDxfId="110"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CLF" dataDxfId="109"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Qs (W)" dataDxfId="108">
       <calculatedColumnFormula>B95*C95*D95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Ql (W)" dataDxfId="144">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Ql (W)" dataDxfId="107">
       <calculatedColumnFormula>B95*C95*E95*F95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10537,18 +10538,18 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table21" displayName="Table21" ref="A45:H89" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table21" displayName="Table21" ref="A45:H89" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="102">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SPACE" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Occ" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Gain/person" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Sensible" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Latent" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CLF" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Qs (W)" dataDxfId="132">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SPACE" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Occ" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Gain/person" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Sensible" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Latent" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CLF" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Qs (W)" dataDxfId="95">
       <calculatedColumnFormula>B46*C46*D46*F46</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="Ql (W)" dataDxfId="131">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="Ql (W)" dataDxfId="94">
       <calculatedColumnFormula>B46*C46*E46</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10557,18 +10558,18 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table22" displayName="Table22" ref="A3:H40" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127" totalsRowBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table22" displayName="Table22" ref="A3:H40" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="SPACE" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Occ" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Gain/person" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Sensible" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Latent" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CLF" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Qs (W)" dataDxfId="119">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="SPACE" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Occ" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Gain/person" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Sensible" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Latent" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CLF" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Qs (W)" dataDxfId="82">
       <calculatedColumnFormula>B4*C4*D4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Ql (W)" dataDxfId="118">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Ql (W)" dataDxfId="81">
       <calculatedColumnFormula>C4*E4*F4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10577,17 +10578,17 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{64F8AD3E-DA26-4AB7-A8B3-FED43A0DA675}" name="Table26" displayName="Table26" ref="A3:G62" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{64F8AD3E-DA26-4AB7-A8B3-FED43A0DA675}" name="Table26" displayName="Table26" ref="A3:G62" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3D15F0BA-E56A-48AD-8475-8EDB97578663}" name="Space 1" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{E6499B88-C35B-459A-B806-100CCDCDCA2B}" name="Space 2" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{D2D2D7C6-259A-4E15-80D5-76BCB5F2755C}" name="U" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{0764F60A-9AFF-45C7-9B37-2675DAC3354B}" name="Area" dataDxfId="109">
+    <tableColumn id="1" xr3:uid="{3D15F0BA-E56A-48AD-8475-8EDB97578663}" name="Space 1" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{E6499B88-C35B-459A-B806-100CCDCDCA2B}" name="Space 2" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{D2D2D7C6-259A-4E15-80D5-76BCB5F2755C}" name="U" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{0764F60A-9AFF-45C7-9B37-2675DAC3354B}" name="Area" dataDxfId="68">
       <calculatedColumnFormula>References!AW4*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{089F04A6-59E5-4D01-9963-34848ABB08D8}" name="Ti" dataDxfId="108"/>
-    <tableColumn id="6" xr3:uid="{6D9BF11B-E4DD-49A6-BD0B-97AA2C4E05C7}" name="To" dataDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{5A992B19-DB89-40D9-A7B7-A2A63D74CAB2}" name="Qs (W)" dataDxfId="106">
+    <tableColumn id="5" xr3:uid="{089F04A6-59E5-4D01-9963-34848ABB08D8}" name="Ti" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{6D9BF11B-E4DD-49A6-BD0B-97AA2C4E05C7}" name="To" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{5A992B19-DB89-40D9-A7B7-A2A63D74CAB2}" name="Qs (W)" dataDxfId="65">
       <calculatedColumnFormula>C4*D4*(F4-E4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10596,17 +10597,17 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{EBF95BE4-81ED-476D-A997-E43089A78204}" name="Table27" displayName="Table27" ref="A66:G136" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{EBF95BE4-81ED-476D-A997-E43089A78204}" name="Table27" displayName="Table27" ref="A66:G136" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{69C0A91B-A3FC-4753-82E6-7AD406608DA3}" name="Space 1" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{AEE5E517-E89F-4369-AB32-02BDCE5550D6}" name="Space 2" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{534EF880-A31A-4F02-8D63-58BC01851CB2}" name="U" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{ADBF381F-28C0-4B1C-A4BB-4EC3FA91953E}" name="Area" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{69C0A91B-A3FC-4753-82E6-7AD406608DA3}" name="Space 1" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{AEE5E517-E89F-4369-AB32-02BDCE5550D6}" name="Space 2" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{534EF880-A31A-4F02-8D63-58BC01851CB2}" name="U" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{ADBF381F-28C0-4B1C-A4BB-4EC3FA91953E}" name="Area" dataDxfId="56">
       <calculatedColumnFormula>2*References!AX4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{08AF1E93-1E3D-45EA-A5CD-31D81BB6DB0E}" name="Ti" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{83FA9F78-25A4-454A-8AD3-5A7975FA8352}" name="To" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{F7BB9612-AFD7-41F9-9A2B-39116DFCDF64}" name="Qs (W)" dataDxfId="94">
+    <tableColumn id="5" xr3:uid="{08AF1E93-1E3D-45EA-A5CD-31D81BB6DB0E}" name="Ti" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{83FA9F78-25A4-454A-8AD3-5A7975FA8352}" name="To" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{F7BB9612-AFD7-41F9-9A2B-39116DFCDF64}" name="Qs (W)" dataDxfId="53">
       <calculatedColumnFormula>C67*D67*(F67-E67)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10615,17 +10616,17 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{88EC8EFE-4C0E-46A7-9559-595CD2FC3D4F}" name="Table31" displayName="Table31" ref="A140:G200" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{88EC8EFE-4C0E-46A7-9559-595CD2FC3D4F}" name="Table31" displayName="Table31" ref="A140:G200" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AEFCFF34-ED8A-4D1B-928C-1A4AC9803B91}" name="Space 1" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{55781A89-E632-4F5A-B9AE-B40CDA4E25A8}" name="Space 2" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{16E0CBE7-3940-41CE-8530-A2D6900F4684}" name="U" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{9A5A6631-C755-4076-9BF0-63662EC62164}" name="Area" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{AEFCFF34-ED8A-4D1B-928C-1A4AC9803B91}" name="Space 1" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{55781A89-E632-4F5A-B9AE-B40CDA4E25A8}" name="Space 2" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{16E0CBE7-3940-41CE-8530-A2D6900F4684}" name="U" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{9A5A6631-C755-4076-9BF0-63662EC62164}" name="Area" dataDxfId="45">
       <calculatedColumnFormula>2*References!AY4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{31F594E5-5372-4099-AA2F-E0C7F12066AA}" name="Ti" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{28C0F865-E043-41E8-A8E9-9B5DE187E7CF}" name="To" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{A12774DA-FA6C-45F2-A816-9E6CC1F9185F}" name="Qs (W)" dataDxfId="83">
+    <tableColumn id="5" xr3:uid="{31F594E5-5372-4099-AA2F-E0C7F12066AA}" name="Ti" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{28C0F865-E043-41E8-A8E9-9B5DE187E7CF}" name="To" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{A12774DA-FA6C-45F2-A816-9E6CC1F9185F}" name="Qs (W)" dataDxfId="42">
       <calculatedColumnFormula>C141*D141*(F141-E141)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10634,16 +10635,16 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table23" displayName="Table23" ref="A3:F62" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table23" displayName="Table23" ref="A3:F62" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="SPACE" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="W" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="SPACE" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="W" dataDxfId="35">
       <calculatedColumnFormula>13*References!BA4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Fu" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Fb" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="CLF" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Qs (W)" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Fu" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Fb" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="CLF" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Qs (W)" dataDxfId="31">
       <calculatedColumnFormula>B4*C4*D4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10652,16 +10653,16 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table24" displayName="Table24" ref="A66:F116" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table24" displayName="Table24" ref="A66:F116" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="SPACE" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="W" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="SPACE" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="W" dataDxfId="24">
       <calculatedColumnFormula>13*References!BB4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Fu" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Fb" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="CLF" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Qs (W)" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Fu" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Fb" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="CLF" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Qs (W)" dataDxfId="20">
       <calculatedColumnFormula>B67*C67*D67*E67</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10670,14 +10671,14 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table25" displayName="Table25" ref="A120:F164" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table25" displayName="Table25" ref="A120:F164" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="SPACE" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="W" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Fu" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Fb" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="CLF" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Qs (W)" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="SPACE" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="W" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Fu" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Fb" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="CLF" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Qs (W)" dataDxfId="9">
       <calculatedColumnFormula>B121*C121*D121*E121</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10709,27 +10710,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="339" headerRowBorderDxfId="338" tableBorderDxfId="337" totalsRowBorderDxfId="336">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="338" headerRowBorderDxfId="337" tableBorderDxfId="336" totalsRowBorderDxfId="335">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="335"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="334"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="333"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="332"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="331"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="330">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="334"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="333"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="332"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="331"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="330"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="329">
       <calculatedColumnFormula>References!E5*References!F5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="329">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="328">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",685,B4="N",120,B4="W",685,B4="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="328">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="327">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",0.8,B4="N",0.91,B4="W",0.82,B4="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="327"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="326">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="326"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="325">
       <calculatedColumnFormula>G4*H4*F4*I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="325">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="324">
       <calculatedColumnFormula>(C4*F4)*(D4-E4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10738,27 +10739,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A72:K98" totalsRowShown="0" headerRowDxfId="324" dataDxfId="322" headerRowBorderDxfId="323" tableBorderDxfId="321" totalsRowBorderDxfId="320">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A72:K98" totalsRowShown="0" headerRowDxfId="323" dataDxfId="321" headerRowBorderDxfId="322" tableBorderDxfId="320" totalsRowBorderDxfId="319">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="319"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="318"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="317"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="316"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="315"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="314">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="318"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="317"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="316"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="315"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="314"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="313">
       <calculatedColumnFormula>References!E41*References!F41</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="313">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="312">
       <calculatedColumnFormula>_xlfn.IFS(B73="E",685,B73="N",120,B73="W",685,B73="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="312">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="311">
       <calculatedColumnFormula>_xlfn.IFS(B73="E",0.8,B73="N",0.91,B73="W",0.82,B73="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="311"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="310">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="310"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="309">
       <calculatedColumnFormula>G73*H73*F73*I73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="309">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="308">
       <calculatedColumnFormula>(C73*F73)*(D73-E73)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10767,25 +10768,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A38:K67" totalsRowShown="0" headerRowDxfId="308" headerRowBorderDxfId="307" tableBorderDxfId="306" totalsRowBorderDxfId="305">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A38:K67" totalsRowShown="0" headerRowDxfId="307" headerRowBorderDxfId="306" tableBorderDxfId="305" totalsRowBorderDxfId="304">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="304"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="303"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="302"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="301"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="300"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="299"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="298">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="303"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="302"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="301"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="300"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="299"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="298"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="297">
       <calculatedColumnFormula>_xlfn.IFS(B39="N",120,B39="E",685,B39="S",230,B39="W",685)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="297">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="296">
       <calculatedColumnFormula>_xlfn.IFS(B39="N",0.91,B39="E",0.8,B39="S",0.83,B39="W",0.82)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="296"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="295">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="295"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="294">
       <calculatedColumnFormula>I39*H39*G39*F39</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="294">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="293">
       <calculatedColumnFormula>(C39*F39)*(D39-E39)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10794,25 +10795,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="293" headerRowBorderDxfId="292" tableBorderDxfId="291" totalsRowBorderDxfId="290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="292" headerRowBorderDxfId="291" tableBorderDxfId="290" totalsRowBorderDxfId="289">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="287">
       <calculatedColumnFormula>References!AB4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="286">
       <calculatedColumnFormula>((0.15+0.01*3+0.007*(D78-E78))*B78)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="285"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="284"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="283"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="282">
       <calculatedColumnFormula>_xlfn.IFS(E78=22.5,0.00848061,E78=22,0.00821976,E78=24,0.00929323,E78=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="281">
       <calculatedColumnFormula>1.23*C78*(D78-E78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="280">
       <calculatedColumnFormula>3000*C78*(F78-G78)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10821,25 +10822,25 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I232" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I232" totalsRowShown="0" headerRowDxfId="279" headerRowBorderDxfId="278" tableBorderDxfId="277" totalsRowBorderDxfId="276">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="275"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="274">
       <calculatedColumnFormula>References!AE4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="273">
       <calculatedColumnFormula>(References!AD4*B163)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="272"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="271"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="270"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="269">
       <calculatedColumnFormula>_xlfn.IFS(E163=22.5,0.00848031,E163=24,0.009293235,E163=22,0.00821976,E163=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="268">
       <calculatedColumnFormula>1.232*(D163-E163)*C163</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="26">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="267">
       <calculatedColumnFormula>3000*C163*(F163-G163)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10848,23 +10849,23 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:I72" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:I72" totalsRowShown="0" headerRowDxfId="266" headerRowBorderDxfId="265" tableBorderDxfId="264" totalsRowBorderDxfId="263">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="262"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="261">
       <calculatedColumnFormula>References!Z4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="260">
       <calculatedColumnFormula>(References!Y4*B4)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="259"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="258"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="257"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="256"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="255">
       <calculatedColumnFormula>(1.232*(D4-E4)*C4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="37">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="254">
       <calculatedColumnFormula>3000*C4*(F4-G4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11190,34 +11191,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -11254,14 +11255,14 @@
         <v>10</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="N3" s="158" t="s">
+      <c r="N3" s="160" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -11301,14 +11302,14 @@
         <f>C4*D4*E4</f>
         <v>1492.92</v>
       </c>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159" t="s">
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -11348,17 +11349,17 @@
         <f t="shared" ref="K5:K37" si="1">C5*D5*E5</f>
         <v>564.59519999999998</v>
       </c>
-      <c r="N5" s="160" t="s">
+      <c r="N5" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160">
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162">
         <f>K38</f>
         <v>39227.857343999996</v>
       </c>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -11398,17 +11399,17 @@
         <f t="shared" si="1"/>
         <v>204.66575999999998</v>
       </c>
-      <c r="N6" s="160" t="s">
+      <c r="N6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160">
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162">
         <f>K85</f>
         <v>29577.289556411994</v>
       </c>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -11448,17 +11449,17 @@
         <f t="shared" si="1"/>
         <v>177.847488</v>
       </c>
-      <c r="N7" s="160" t="s">
+      <c r="N7" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160">
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162">
         <f>K131</f>
         <v>48183.830135999997</v>
       </c>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -11498,17 +11499,17 @@
         <f t="shared" si="1"/>
         <v>398.03961599999997</v>
       </c>
-      <c r="N8" s="161" t="s">
+      <c r="N8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="149">
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="151">
         <f>Q5+Q6+Q7</f>
         <v>116988.97703641199</v>
       </c>
-      <c r="R8" s="150"/>
-      <c r="S8" s="151"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="153"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -11548,12 +11549,12 @@
         <f t="shared" si="1"/>
         <v>398.03961599999997</v>
       </c>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="154"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="156"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -12658,19 +12659,19 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
@@ -14320,19 +14321,19 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A87" s="156" t="s">
+      <c r="A87" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="156"/>
-      <c r="C87" s="156"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="156"/>
-      <c r="F87" s="156"/>
-      <c r="G87" s="156"/>
-      <c r="H87" s="156"/>
-      <c r="I87" s="156"/>
-      <c r="J87" s="156"/>
-      <c r="K87" s="156"/>
+      <c r="B87" s="158"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="158"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="158"/>
+      <c r="G87" s="158"/>
+      <c r="H87" s="158"/>
+      <c r="I87" s="158"/>
+      <c r="J87" s="158"/>
+      <c r="K87" s="158"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
@@ -16132,7 +16133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
@@ -16145,26 +16146,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
       <c r="G1" s="113"/>
       <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="105"/>
       <c r="H2" s="105"/>
     </row>
@@ -16187,14 +16188,14 @@
       <c r="F3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="158" t="s">
+      <c r="J3" s="160" t="s">
         <v>539</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
@@ -16217,14 +16218,14 @@
         <f>B4*C4*D4*E4</f>
         <v>411.74972279999997</v>
       </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159" t="s">
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
@@ -16247,17 +16248,17 @@
         <f t="shared" ref="F5:F61" si="0">B5*C5*D5*E5</f>
         <v>106.14389759999999</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160">
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162">
         <f>F63</f>
         <v>19883.609740799991</v>
       </c>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
@@ -16280,17 +16281,17 @@
         <f t="shared" si="0"/>
         <v>57.317909999999991</v>
       </c>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160">
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162">
         <f>F117</f>
         <v>16958.066184539995</v>
       </c>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
@@ -16313,17 +16314,17 @@
         <f t="shared" si="0"/>
         <v>119.581254</v>
       </c>
-      <c r="J7" s="160" t="s">
+      <c r="J7" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160">
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162">
         <f>F165</f>
         <v>22461.543873599996</v>
       </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
@@ -16346,17 +16347,17 @@
         <f t="shared" si="0"/>
         <v>134.1690012</v>
       </c>
-      <c r="J8" s="161" t="s">
+      <c r="J8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="149">
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="151">
         <f>M5+M6+M7</f>
         <v>59303.219798939987</v>
       </c>
-      <c r="N8" s="150"/>
-      <c r="O8" s="151"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="153"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
@@ -16379,12 +16380,12 @@
         <f t="shared" si="0"/>
         <v>134.51580479999998</v>
       </c>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="154"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="156"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83" t="s">
@@ -17562,14 +17563,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="155"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
       <c r="G65" s="105"/>
       <c r="H65" s="105"/>
     </row>
@@ -18705,14 +18706,14 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A119" s="156" t="s">
+      <c r="A119" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B119" s="156"/>
-      <c r="C119" s="156"/>
-      <c r="D119" s="156"/>
-      <c r="E119" s="156"/>
-      <c r="F119" s="156"/>
+      <c r="B119" s="158"/>
+      <c r="C119" s="158"/>
+      <c r="D119" s="158"/>
+      <c r="E119" s="158"/>
+      <c r="F119" s="158"/>
       <c r="G119" s="108"/>
       <c r="H119" s="108"/>
     </row>
@@ -19756,12 +19757,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="121" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="179" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
       <c r="E1" s="105"/>
       <c r="F1" s="105"/>
       <c r="G1" s="105"/>
@@ -20014,17 +20015,17 @@
         <v>43</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="Y2" s="167" t="s">
+      <c r="Y2" s="169" t="s">
         <v>297</v>
       </c>
-      <c r="Z2" s="167"/>
+      <c r="Z2" s="169"/>
       <c r="AB2" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="167" t="s">
+      <c r="AD2" s="169" t="s">
         <v>318</v>
       </c>
-      <c r="AE2" s="167"/>
+      <c r="AE2" s="169"/>
       <c r="AG2" t="s">
         <v>543</v>
       </c>
@@ -20063,10 +20064,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="167"/>
+      <c r="B3" s="169"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
       </c>
@@ -23137,11 +23138,11 @@
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A38" s="167" t="s">
+      <c r="A38" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="169"/>
       <c r="Y38" s="49">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D37-'INFILTRATION LOAD'!E37)</f>
         <v>0.26400000000000001</v>
@@ -23216,11 +23217,11 @@
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
       <c r="Y39" s="49">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D38-'INFILTRATION LOAD'!E38)</f>
         <v>0.26400000000000001</v>
@@ -26822,34 +26823,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
     </row>
     <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
@@ -26885,14 +26886,14 @@
       <c r="K3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="158" t="s">
+      <c r="O3" s="160" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -26933,9 +26934,9 @@
         <f>(C4*F4)*(D4-E4)</f>
         <v>68.9328</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
       <c r="R4" s="135" t="s">
         <v>541</v>
       </c>
@@ -26985,11 +26986,11 @@
         <f t="shared" ref="K5:K33" si="3">(C5*F5)*(D5-E5)</f>
         <v>41.359679999999997</v>
       </c>
-      <c r="O5" s="160" t="s">
+      <c r="O5" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
       <c r="R5" s="6">
         <f>J34</f>
         <v>13744.838250000003</v>
@@ -27042,11 +27043,11 @@
         <f t="shared" si="3"/>
         <v>10.856916</v>
       </c>
-      <c r="O6" s="160" t="s">
+      <c r="O6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
       <c r="R6" s="6">
         <f>J68</f>
         <v>12911.636650000004</v>
@@ -27099,11 +27100,11 @@
         <f t="shared" si="3"/>
         <v>21.713832</v>
       </c>
-      <c r="O7" s="160" t="s">
+      <c r="O7" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
       <c r="R7" s="6">
         <f>J99</f>
         <v>11242.204599999995</v>
@@ -27156,20 +27157,20 @@
         <f t="shared" si="3"/>
         <v>21.713832</v>
       </c>
-      <c r="O8" s="161" t="s">
+      <c r="O8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="165">
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="167">
         <f>SUM(R5:R7)</f>
         <v>37898.679500000006</v>
       </c>
-      <c r="S8" s="165">
+      <c r="S8" s="167">
         <f>SUM(S5:S7)</f>
         <v>5619.0880269999998</v>
       </c>
-      <c r="T8" s="165">
+      <c r="T8" s="167">
         <f>T5+T6+T7</f>
         <v>43517.767527000004</v>
       </c>
@@ -27213,12 +27214,12 @@
         <f t="shared" si="3"/>
         <v>56.422000000000004</v>
       </c>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -28181,10 +28182,10 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="162" t="s">
+      <c r="H34" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="162"/>
+      <c r="I34" s="164"/>
       <c r="J34" s="43">
         <f>SUM(J4:J33)</f>
         <v>13744.838250000003</v>
@@ -28195,15 +28196,15 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="162" t="s">
+      <c r="H35" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="I35" s="162"/>
-      <c r="J35" s="163">
+      <c r="I35" s="164"/>
+      <c r="J35" s="165">
         <f>J34+K34</f>
         <v>15627.000640000002</v>
       </c>
-      <c r="K35" s="164"/>
+      <c r="K35" s="166"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H36" s="3"/>
@@ -28212,19 +28213,19 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="158"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
@@ -29393,10 +29394,10 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H68" s="162" t="s">
+      <c r="H68" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="I68" s="162"/>
+      <c r="I68" s="164"/>
       <c r="J68" s="43">
         <f>SUM(J39:J67)</f>
         <v>12911.636650000004</v>
@@ -29407,30 +29408,30 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H69" s="162" t="s">
+      <c r="H69" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="I69" s="162"/>
-      <c r="J69" s="163">
+      <c r="I69" s="164"/>
+      <c r="J69" s="165">
         <f>J68+K68</f>
         <v>15097.460593000003</v>
       </c>
-      <c r="K69" s="164"/>
+      <c r="K69" s="166"/>
     </row>
     <row r="71" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A71" s="156" t="s">
+      <c r="A71" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="158"/>
+      <c r="E71" s="158"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="158"/>
+      <c r="H71" s="158"/>
+      <c r="I71" s="158"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="158"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
@@ -30508,10 +30509,10 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H99" s="162" t="s">
+      <c r="H99" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="I99" s="162"/>
+      <c r="I99" s="164"/>
       <c r="J99" s="43">
         <f>SUM(J73:J98)</f>
         <v>11242.204599999995</v>
@@ -30522,18 +30523,27 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H100" s="162" t="s">
+      <c r="H100" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="I100" s="162"/>
-      <c r="J100" s="163">
+      <c r="I100" s="164"/>
+      <c r="J100" s="165">
         <f>J99+K99</f>
         <v>12793.306293999995</v>
       </c>
-      <c r="K100" s="164"/>
+      <c r="K100" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H69:I69"/>
@@ -30547,18 +30557,9 @@
     <mergeCell ref="H99:I99"/>
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="A72:K98">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30580,8 +30581,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S234"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K210" sqref="K210:M216"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30604,32 +30605,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
       <c r="J1" s="129"/>
       <c r="K1" s="129"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
     </row>
@@ -30661,14 +30662,14 @@
       <c r="I3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="158" t="s">
+      <c r="L3" s="160" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -30702,9 +30703,9 @@
         <f t="shared" ref="I4:I34" si="1">3000*C4*(F4-G4)</f>
         <v>291.35822808945596</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
       <c r="O4" s="135" t="s">
         <v>541</v>
       </c>
@@ -30747,11 +30748,11 @@
         <f t="shared" si="1"/>
         <v>82.010154749951994</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
       <c r="O5" s="6">
         <f>H73</f>
         <v>6335.2156108951121</v>
@@ -30797,11 +30798,11 @@
         <f t="shared" si="1"/>
         <v>58.418394054637488</v>
       </c>
-      <c r="L6" s="160" t="s">
+      <c r="L6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
       <c r="O6" s="6">
         <f>H158</f>
         <v>5646.4769823865836</v>
@@ -30847,11 +30848,11 @@
         <f t="shared" si="1"/>
         <v>138.58842619511998</v>
       </c>
-      <c r="L7" s="160" t="s">
+      <c r="L7" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
       <c r="O7" s="6">
         <f>H233</f>
         <v>5262.10371996711</v>
@@ -30897,20 +30898,20 @@
         <f t="shared" si="1"/>
         <v>21.203990166937498</v>
       </c>
-      <c r="L8" s="161" t="s">
+      <c r="L8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="165">
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="167">
         <f>SUM(O5:O7)</f>
         <v>17243.796313248808</v>
       </c>
-      <c r="P8" s="165">
+      <c r="P8" s="167">
         <f>SUM(P5:P7)</f>
         <v>36261.030071270885</v>
       </c>
-      <c r="Q8" s="165">
+      <c r="Q8" s="167">
         <f>Q5+Q6+Q7</f>
         <v>53504.826384519685</v>
       </c>
@@ -30947,12 +30948,12 @@
         <f t="shared" si="1"/>
         <v>136.74499963482148</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
@@ -31402,8 +31403,8 @@
         <f t="shared" si="1"/>
         <v>98.622581446751994</v>
       </c>
-      <c r="P22" s="167"/>
-      <c r="Q22" s="167"/>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="169"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -33072,42 +33073,42 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F73" s="162" t="s">
+      <c r="F73" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="G73" s="162"/>
+      <c r="G73" s="164"/>
       <c r="H73" s="43">
         <f>SUM(H4:H72)</f>
         <v>6335.2156108951121</v>
       </c>
-      <c r="I73" s="177">
+      <c r="I73" s="149">
         <f>SUM(I4:I72)</f>
         <v>13463.221743267075</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F74" s="162" t="s">
+      <c r="F74" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="162"/>
-      <c r="H74" s="163">
+      <c r="G74" s="164"/>
+      <c r="H74" s="165">
         <f>H73+I73</f>
         <v>19798.437354162186</v>
       </c>
-      <c r="I74" s="164"/>
+      <c r="I74" s="166"/>
     </row>
     <row r="76" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A76" s="168" t="s">
+      <c r="A76" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="168"/>
-      <c r="C76" s="168"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="168"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="168"/>
-      <c r="I76" s="168"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="170"/>
+      <c r="E76" s="170"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="170"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
@@ -35323,7 +35324,7 @@
         <v>59.95</v>
       </c>
       <c r="C142" s="6">
-        <f t="shared" ref="C142:C173" si="12">((0.15+0.01*3+0.007*(D142-E142))*B142)/3.6</f>
+        <f t="shared" ref="C142:C157" si="12">((0.15+0.01*3+0.007*(D142-E142))*B142)/3.6</f>
         <v>4.3963333333333336</v>
       </c>
       <c r="D142" s="6">
@@ -35859,42 +35860,42 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F158" s="178" t="s">
+      <c r="F158" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="G158" s="178"/>
-      <c r="H158" s="179">
+      <c r="G158" s="171"/>
+      <c r="H158" s="150">
         <f>SUM(H78:H157)</f>
         <v>5646.4769823865836</v>
       </c>
-      <c r="I158" s="179">
+      <c r="I158" s="150">
         <f>SUM(I78:I157)</f>
         <v>11703.581284820526</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F159" s="162" t="s">
+      <c r="F159" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="G159" s="162"/>
-      <c r="H159" s="163">
+      <c r="G159" s="164"/>
+      <c r="H159" s="165">
         <f>I158+H158</f>
         <v>17350.05826720711</v>
       </c>
-      <c r="I159" s="164"/>
+      <c r="I159" s="166"/>
     </row>
     <row r="161" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A161" s="156" t="s">
+      <c r="A161" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B161" s="156"/>
-      <c r="C161" s="156"/>
-      <c r="D161" s="156"/>
-      <c r="E161" s="156"/>
-      <c r="F161" s="156"/>
-      <c r="G161" s="156"/>
-      <c r="H161" s="156"/>
-      <c r="I161" s="156"/>
+      <c r="B161" s="158"/>
+      <c r="C161" s="158"/>
+      <c r="D161" s="158"/>
+      <c r="E161" s="158"/>
+      <c r="F161" s="158"/>
+      <c r="G161" s="158"/>
+      <c r="H161" s="158"/>
+      <c r="I161" s="158"/>
       <c r="J161" s="108"/>
       <c r="K161" s="108"/>
     </row>
@@ -38197,11 +38198,11 @@
         <v>8.4803099999999996E-3</v>
       </c>
       <c r="H229" s="6">
-        <f t="shared" ref="H228:H230" si="22">1.232*(D229-E229)*C229</f>
+        <f t="shared" ref="H229:H230" si="22">1.232*(D229-E229)*C229</f>
         <v>40.835103231999994</v>
       </c>
       <c r="I229" s="6">
-        <f t="shared" ref="I228:I232" si="23">3000*C229*(F229-G229)</f>
+        <f t="shared" ref="I229:I232" si="23">3000*C229*(F229-G229)</f>
         <v>80.016600228048006</v>
       </c>
     </row>
@@ -38308,10 +38309,10 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F233" s="162" t="s">
+      <c r="F233" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="G233" s="162"/>
+      <c r="G233" s="164"/>
       <c r="H233" s="43">
         <f>SUM(H163:H232)</f>
         <v>5262.10371996711</v>
@@ -38322,18 +38323,25 @@
       </c>
     </row>
     <row r="234" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F234" s="162" t="s">
+      <c r="F234" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="G234" s="162"/>
-      <c r="H234" s="163">
+      <c r="G234" s="164"/>
+      <c r="H234" s="165">
         <f>I233+H233</f>
         <v>16356.33076315039</v>
       </c>
-      <c r="I234" s="164"/>
+      <c r="I234" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N9"/>
     <mergeCell ref="F234:G234"/>
     <mergeCell ref="F233:G233"/>
     <mergeCell ref="F73:G73"/>
@@ -38350,13 +38358,6 @@
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38390,29 +38391,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
       <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:17" s="121" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="105"/>
       <c r="J2" s="105"/>
       <c r="K2" s="105"/>
@@ -38442,14 +38443,14 @@
       <c r="H3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="173" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
     </row>
     <row r="4" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
@@ -38478,9 +38479,9 @@
         <f>C4*E4</f>
         <v>11.327999999999999</v>
       </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
       <c r="O4" s="136" t="s">
         <v>541</v>
       </c>
@@ -38518,11 +38519,11 @@
         <f t="shared" ref="H5:H44" si="1">C5*E5</f>
         <v>365.50400000000002</v>
       </c>
-      <c r="L5" s="171" t="s">
+      <c r="L5" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
       <c r="O5" s="84">
         <f>G45</f>
         <v>5447.2492799999991</v>
@@ -38563,11 +38564,11 @@
         <f t="shared" si="1"/>
         <v>11.327999999999999</v>
       </c>
-      <c r="L6" s="171" t="s">
+      <c r="L6" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
       <c r="O6" s="84">
         <f>G90</f>
         <v>3484.8253440000008</v>
@@ -38608,11 +38609,11 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L7" s="171" t="s">
+      <c r="L7" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
       <c r="O7" s="84">
         <f>G128</f>
         <v>2187.573695999999</v>
@@ -38653,20 +38654,20 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L8" s="161" t="s">
+      <c r="L8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="165">
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="167">
         <f>SUM(O5:O7)</f>
         <v>11119.64832</v>
       </c>
-      <c r="P8" s="165">
+      <c r="P8" s="167">
         <f>SUM(P5:P7)</f>
         <v>5615.9839999999995</v>
       </c>
-      <c r="Q8" s="165">
+      <c r="Q8" s="167">
         <f>Q5+Q6+Q7</f>
         <v>16735.632319999997</v>
       </c>
@@ -38698,12 +38699,12 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
     </row>
     <row r="10" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
@@ -39717,16 +39718,16 @@
       <c r="H47" s="51"/>
     </row>
     <row r="48" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="168" t="s">
+      <c r="A48" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
       <c r="I48" s="128"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -40909,16 +40910,16 @@
       <c r="H92" s="51"/>
     </row>
     <row r="93" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="156" t="s">
+      <c r="A93" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="156"/>
-      <c r="D93" s="156"/>
-      <c r="E93" s="156"/>
-      <c r="F93" s="156"/>
-      <c r="G93" s="156"/>
-      <c r="H93" s="156"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="158"/>
       <c r="I93" s="108"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41898,6 +41899,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="E129:F129"/>
     <mergeCell ref="G129:H129"/>
     <mergeCell ref="E128:F128"/>
@@ -41911,15 +41921,6 @@
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -41949,48 +41950,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="121" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="176" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="L3" s="158" t="s">
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="L3" s="160" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -42018,14 +42019,14 @@
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
@@ -42054,16 +42055,16 @@
         <f>B5*C5*G5</f>
         <v>1159.3501026231174</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160">
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162">
         <v>0</v>
       </c>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
@@ -42092,17 +42093,17 @@
         <f t="shared" ref="H6:H46" si="1">B6*C6*G6</f>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L6" s="160" t="s">
+      <c r="L6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160">
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162">
         <f>I85</f>
         <v>0</v>
       </c>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
@@ -42131,17 +42132,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L7" s="160" t="s">
+      <c r="L7" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160">
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162">
         <f>H47</f>
         <v>32590.037396229796</v>
       </c>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
@@ -42170,17 +42171,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L8" s="161" t="s">
+      <c r="L8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="149">
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="151">
         <f>O5+O6+O7</f>
         <v>32590.037396229796</v>
       </c>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="153"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
@@ -42209,12 +42210,12 @@
         <f t="shared" si="1"/>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="154"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="156"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
@@ -43572,12 +43573,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="L8:N9"/>
     <mergeCell ref="O8:Q9"/>
     <mergeCell ref="L4:N4"/>
@@ -43586,6 +43581,12 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -43611,28 +43612,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="134"/>
       <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:16" s="121" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -43657,14 +43658,14 @@
       <c r="G3" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="160" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
@@ -43690,14 +43691,14 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>331.42823999999996</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
@@ -43721,17 +43722,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160">
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162">
         <f>G90</f>
         <v>18554.539067999998</v>
       </c>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
@@ -43757,17 +43758,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>41.530319999999996</v>
       </c>
-      <c r="K6" s="160" t="s">
+      <c r="K6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160">
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162">
         <f>G198</f>
         <v>19890.591177600007</v>
       </c>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
@@ -43793,17 +43794,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>130.2912</v>
       </c>
-      <c r="K7" s="160" t="s">
+      <c r="K7" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160">
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162">
         <f>G296</f>
         <v>17107.397424000003</v>
       </c>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
@@ -43827,17 +43828,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K8" s="161" t="s">
+      <c r="K8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="149">
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="151">
         <f>N5+N6+N7</f>
         <v>55552.527669600007</v>
       </c>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="153"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
@@ -43863,12 +43864,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>397.11671999999999</v>
       </c>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="154"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="156"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
@@ -45820,15 +45821,15 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="155"/>
-      <c r="C93" s="155"/>
-      <c r="D93" s="155"/>
-      <c r="E93" s="155"/>
-      <c r="F93" s="155"/>
-      <c r="G93" s="155"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="157"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="157"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="157"/>
       <c r="H93" s="105"/>
       <c r="I93" s="105"/>
     </row>
@@ -48370,15 +48371,15 @@
       </c>
     </row>
     <row r="200" spans="1:9" s="121" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A200" s="156" t="s">
+      <c r="A200" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B200" s="156"/>
-      <c r="C200" s="156"/>
-      <c r="D200" s="156"/>
-      <c r="E200" s="156"/>
-      <c r="F200" s="156"/>
-      <c r="G200" s="156"/>
+      <c r="B200" s="158"/>
+      <c r="C200" s="158"/>
+      <c r="D200" s="158"/>
+      <c r="E200" s="158"/>
+      <c r="F200" s="158"/>
+      <c r="G200" s="158"/>
       <c r="H200" s="108"/>
       <c r="I200" s="108"/>
     </row>
@@ -50715,7 +50716,7 @@
     <mergeCell ref="N8:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:F89">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="8" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50752,32 +50753,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
       <c r="J1" s="106"/>
       <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="105"/>
       <c r="K2" s="105"/>
     </row>
@@ -50809,14 +50810,14 @@
       <c r="I3" s="95" t="s">
         <v>416</v>
       </c>
-      <c r="O3" s="169" t="s">
+      <c r="O3" s="173" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
@@ -50850,9 +50851,9 @@
         <v>463.49481599999996</v>
       </c>
       <c r="J4" s="91"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
       <c r="R4" s="136" t="s">
         <v>541</v>
       </c>
@@ -50895,11 +50896,11 @@
         <v>1338.7939199999998</v>
       </c>
       <c r="J5" s="91"/>
-      <c r="O5" s="171" t="s">
+      <c r="O5" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
       <c r="R5" s="84">
         <f>H41</f>
         <v>9262.7920000000013</v>
@@ -50945,11 +50946,11 @@
         <v>1158.73704</v>
       </c>
       <c r="J6" s="91"/>
-      <c r="O6" s="171" t="s">
+      <c r="O6" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
       <c r="R6" s="84">
         <f>H90</f>
         <v>20168.763999999999</v>
@@ -50995,11 +50996,11 @@
         <v>217.263195</v>
       </c>
       <c r="J7" s="91"/>
-      <c r="O7" s="171" t="s">
+      <c r="O7" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
       <c r="R7" s="84">
         <f>H125</f>
         <v>12337.248</v>
@@ -51045,20 +51046,20 @@
         <v>463.49481599999996</v>
       </c>
       <c r="J8" s="91"/>
-      <c r="O8" s="161" t="s">
+      <c r="O8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="165">
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="167">
         <f>SUM(R5:R7)</f>
         <v>41768.804000000004</v>
       </c>
-      <c r="S8" s="165">
+      <c r="S8" s="167">
         <f>SUM(S5:S7)</f>
         <v>81950.247258000018</v>
       </c>
-      <c r="T8" s="165">
+      <c r="T8" s="167">
         <f>T5+T6+T7</f>
         <v>123719.05125800002</v>
       </c>
@@ -51095,12 +51096,12 @@
         <v>144.84213</v>
       </c>
       <c r="J9" s="91"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="96" t="s">
@@ -52147,10 +52148,10 @@
       <c r="K41" s="91"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="174" t="s">
+      <c r="G42" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="174"/>
+      <c r="H42" s="177"/>
       <c r="I42" s="131">
         <f>H41+I41</f>
         <v>27565.946668000008</v>
@@ -52170,17 +52171,17 @@
       <c r="K43" s="127"/>
     </row>
     <row r="44" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
       <c r="J44" s="105"/>
       <c r="K44" s="105"/>
     </row>
@@ -53724,10 +53725,10 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="174" t="s">
+      <c r="G91" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="H91" s="174"/>
+      <c r="H91" s="177"/>
       <c r="I91" s="131">
         <f>H90+I90</f>
         <v>59640.959050000005</v>
@@ -53747,17 +53748,17 @@
       <c r="K92" s="127"/>
     </row>
     <row r="93" spans="1:11" s="107" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="156" t="s">
+      <c r="A93" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="156"/>
-      <c r="D93" s="156"/>
-      <c r="E93" s="156"/>
-      <c r="F93" s="156"/>
-      <c r="G93" s="156"/>
-      <c r="H93" s="156"/>
-      <c r="I93" s="156"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="158"/>
+      <c r="I93" s="158"/>
       <c r="J93" s="108"/>
       <c r="K93" s="108"/>
     </row>
@@ -54825,10 +54826,10 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="H126" s="174"/>
+      <c r="H126" s="177"/>
       <c r="I126" s="131">
         <f>H125+I125</f>
         <v>36512.145540000012</v>
@@ -54836,22 +54837,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="G126:H126"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="A93:I93"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G91:H91"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -54884,29 +54885,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
       <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54934,14 +54935,14 @@
       <c r="H3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="169" t="s">
+      <c r="N3" s="173" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
@@ -54970,9 +54971,9 @@
         <f t="shared" ref="H4:H40" si="1">C4*E4*F4</f>
         <v>25.76</v>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
       <c r="Q4" s="136" t="s">
         <v>541</v>
       </c>
@@ -55010,11 +55011,11 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N5" s="171" t="s">
+      <c r="N5" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
       <c r="Q5" s="84">
         <f>G41</f>
         <v>6432.18</v>
@@ -55055,11 +55056,11 @@
         <f t="shared" si="1"/>
         <v>36.800000000000004</v>
       </c>
-      <c r="N6" s="171" t="s">
+      <c r="N6" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
       <c r="Q6" s="84">
         <f>G90</f>
         <v>8765.2999999999993</v>
@@ -55100,11 +55101,11 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N7" s="171" t="s">
+      <c r="N7" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
       <c r="Q7" s="84">
         <f>G125</f>
         <v>4326.2999999999993</v>
@@ -55145,20 +55146,20 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N8" s="161" t="s">
+      <c r="N8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="165">
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="167">
         <f>SUM(Q5:Q7)</f>
         <v>19523.78</v>
       </c>
-      <c r="R8" s="165">
+      <c r="R8" s="167">
         <f>SUM(R5:R7)</f>
         <v>10388.959999999999</v>
       </c>
-      <c r="S8" s="165">
+      <c r="S8" s="167">
         <f>S5+S6+S7</f>
         <v>29912.739999999998</v>
       </c>
@@ -55190,12 +55191,12 @@
         <f t="shared" si="1"/>
         <v>62.1</v>
       </c>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="96" t="s">
@@ -56071,26 +56072,26 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="174" t="s">
+      <c r="F42" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="174"/>
+      <c r="G42" s="177"/>
       <c r="H42" s="131">
         <f>G41+H41</f>
         <v>8320.9399999999987</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
       <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57365,26 +57366,26 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F91" s="174" t="s">
+      <c r="F91" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="174"/>
+      <c r="G91" s="177"/>
       <c r="H91" s="131">
         <f>G90+H90</f>
         <v>15197.8</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="156" t="s">
+      <c r="A93" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="156"/>
-      <c r="D93" s="156"/>
-      <c r="E93" s="156"/>
-      <c r="F93" s="156"/>
-      <c r="G93" s="156"/>
-      <c r="H93" s="156"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="158"/>
       <c r="I93" s="108"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58267,10 +58268,10 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="G126" s="174"/>
+      <c r="G126" s="177"/>
       <c r="H126" s="131">
         <f>G125+H125</f>
         <v>6394</v>
@@ -58278,11 +58279,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F91:G91"/>
     <mergeCell ref="F126:G126"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:P4"/>
@@ -58294,6 +58290,11 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F91:G91"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58321,28 +58322,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="159" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="132"/>
       <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="105"/>
       <c r="I2" s="105"/>
     </row>
@@ -58369,14 +58370,14 @@
         <v>23</v>
       </c>
       <c r="H3" s="87"/>
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="160" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
@@ -58403,14 +58404,14 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H4" s="87"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159" t="s">
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
@@ -58437,17 +58438,17 @@
         <v>4.21875</v>
       </c>
       <c r="H5" s="114"/>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160">
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162">
         <f>G63</f>
         <v>1135.1917399999998</v>
       </c>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
@@ -58474,17 +58475,17 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H6" s="87"/>
-      <c r="K6" s="160" t="s">
+      <c r="K6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160">
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162">
         <f>G137</f>
         <v>1229.8197599999994</v>
       </c>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
@@ -58509,17 +58510,17 @@
         <v>3.8515200000000003</v>
       </c>
       <c r="H7" s="87"/>
-      <c r="K7" s="160" t="s">
+      <c r="K7" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160">
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162">
         <f>G201</f>
         <v>1068.55</v>
       </c>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
@@ -58546,17 +58547,17 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H8" s="87"/>
-      <c r="K8" s="161" t="s">
+      <c r="K8" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="149">
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="151">
         <f>N5+N6+N7</f>
         <v>3433.5614999999989</v>
       </c>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="153"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
@@ -58583,12 +58584,12 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H9" s="87"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="154"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="156"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83" t="s">
@@ -59273,7 +59274,7 @@
         <v>28</v>
       </c>
       <c r="G36" s="64">
-        <f t="shared" ref="G36:G67" si="1">C36*D36*(F36-E36)</f>
+        <f t="shared" ref="G36:G62" si="1">C36*D36*(F36-E36)</f>
         <v>31.12032</v>
       </c>
       <c r="H36" s="87"/>
@@ -59944,15 +59945,15 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="175" t="s">
+      <c r="A65" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="175"/>
-      <c r="C65" s="175"/>
-      <c r="D65" s="175"/>
-      <c r="E65" s="175"/>
-      <c r="F65" s="175"/>
-      <c r="G65" s="175"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="178"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
+      <c r="G65" s="178"/>
       <c r="H65" s="133"/>
       <c r="I65" s="121"/>
     </row>
@@ -63309,22 +63310,22 @@
     <mergeCell ref="N8:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:H62">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135:G136 D67:H134 C67:C136">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
       <formula>$I$65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141:H200">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>$J$182</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:C200">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>$J$182</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/Heat Load Calculation.xlsx
+++ b/Excel/Heat Load Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5B203-B27C-4C88-AC2A-481DEB43D212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903AD9C6-D7E4-4EF6-A2EB-AF4AB9299A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXTERNAL WALL LOAD" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,13 @@
     <sheet name="DOOR PARTITION LOAD" sheetId="11" r:id="rId9"/>
     <sheet name="LIGHTING LOAD" sheetId="10" r:id="rId10"/>
     <sheet name="SUMMARY" sheetId="12" r:id="rId11"/>
-    <sheet name="References" sheetId="4" r:id="rId12"/>
+    <sheet name="Ducting" sheetId="14" r:id="rId12"/>
+    <sheet name="References" sheetId="4" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EXTERNAL WALL LOAD'!$A$88:$L$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'OCCUPANT LOAD'!$A$3:$H$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$4:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">References!$A$4:$B$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="561">
   <si>
     <t>Space</t>
   </si>
@@ -1875,6 +1876,12 @@
   <si>
     <t>Ql/p</t>
   </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
 </sst>
 </file>
 
@@ -2320,7 +2327,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2677,96 +2684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2808,6 +2725,99 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
@@ -2816,59 +2826,7 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="394">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="396">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2918,257 +2876,6 @@
           <color auto="1"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3322,7 +3029,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3340,37 +3046,7 @@
         <top style="medium">
           <color auto="1"/>
         </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3385,24 +3061,133 @@
         <left style="medium">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
         <top style="medium">
           <color auto="1"/>
         </top>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -3417,142 +3202,15 @@
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -3565,26 +3223,30 @@
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <top style="medium">
           <color auto="1"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
         </left>
@@ -3600,13 +3262,189 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3624,14 +3462,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
         </left>
@@ -3640,56 +3472,12 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4726,17 +4514,47 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
         <top style="medium">
           <color auto="1"/>
         </top>
@@ -4754,13 +4572,12 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
         </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top style="medium">
           <color auto="1"/>
         </top>
@@ -4778,6 +4595,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -4802,6 +4620,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -4826,6 +4645,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -4850,6 +4670,32 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -4945,6 +4791,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4988,6 +4835,56 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5257,12 +5154,13 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
         <top style="medium">
           <color auto="1"/>
         </top>
@@ -5281,7 +5179,148 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -5333,133 +5372,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -5504,7 +5416,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -5560,6 +5471,32 @@
         <left style="medium">
           <color auto="1"/>
         </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
         <right/>
         <top style="medium">
           <color auto="1"/>
@@ -5858,6 +5795,330 @@
         <left style="medium">
           <color auto="1"/>
         </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
         <right/>
         <top style="medium">
           <color auto="1"/>
@@ -6308,207 +6569,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -10606,23 +10666,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K37" totalsRowShown="0" headerRowDxfId="393" headerRowBorderDxfId="392" tableBorderDxfId="391" totalsRowBorderDxfId="390">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K37" totalsRowShown="0" headerRowDxfId="395" headerRowBorderDxfId="394" tableBorderDxfId="393" totalsRowBorderDxfId="392">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Space" dataDxfId="389"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Orientation" dataDxfId="388"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="U" dataDxfId="387"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A(m^2)" dataDxfId="386"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLTDsel" dataDxfId="385"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LM" dataDxfId="384"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="k" dataDxfId="383"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ti" dataDxfId="382"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tave" dataDxfId="381">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Space" dataDxfId="391"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Orientation" dataDxfId="390"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="U" dataDxfId="389"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A(m^2)" dataDxfId="388"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLTDsel" dataDxfId="387"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LM" dataDxfId="386"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="k" dataDxfId="385"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ti" dataDxfId="384"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tave" dataDxfId="383">
       <calculatedColumnFormula>(References!T$4)-(References!T$3/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CLTD adj" dataDxfId="380">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CLTD adj" dataDxfId="382">
       <calculatedColumnFormula>(E4+F4)*G4+(25-H4)+(I4-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q(W)" dataDxfId="379">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q(W)" dataDxfId="381">
       <calculatedColumnFormula>C4*D4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10631,18 +10691,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A3:H44" totalsRowShown="0" headerRowDxfId="263" dataDxfId="261" headerRowBorderDxfId="262" tableBorderDxfId="260" totalsRowBorderDxfId="259">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A3:H44" totalsRowShown="0" headerRowDxfId="265" dataDxfId="263" headerRowBorderDxfId="264" tableBorderDxfId="262" totalsRowBorderDxfId="261">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SPACE" dataDxfId="258"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Equipment" dataDxfId="257"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="WATTAGE" dataDxfId="256"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Cs" dataDxfId="255"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cl" dataDxfId="254"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CLF" dataDxfId="253"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Qs (W)" dataDxfId="252">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SPACE" dataDxfId="260"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Equipment" dataDxfId="259"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="WATTAGE" dataDxfId="258"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Cs" dataDxfId="257"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cl" dataDxfId="256"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CLF" dataDxfId="255"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Qs (W)" dataDxfId="254">
       <calculatedColumnFormula>D4*C4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Ql (W)" dataDxfId="251">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Ql (W)" dataDxfId="253">
       <calculatedColumnFormula>C4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10651,18 +10711,18 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A49:H89" totalsRowShown="0" headerRowDxfId="250" headerRowBorderDxfId="249" tableBorderDxfId="248" totalsRowBorderDxfId="247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A49:H89" totalsRowShown="0" headerRowDxfId="252" headerRowBorderDxfId="251" tableBorderDxfId="250" totalsRowBorderDxfId="249">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SPACE" dataDxfId="246"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Equipment" dataDxfId="245"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Wattage" dataDxfId="244"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="CS" dataDxfId="243"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Cl" dataDxfId="242"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CLF" dataDxfId="241"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Qs (W)" dataDxfId="240">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SPACE" dataDxfId="248"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Equipment" dataDxfId="247"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Wattage" dataDxfId="246"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="CS" dataDxfId="245"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Cl" dataDxfId="244"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CLF" dataDxfId="243"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Qs (W)" dataDxfId="242">
       <calculatedColumnFormula>D50*C50*F50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Ql (W)" dataDxfId="239">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Ql (W)" dataDxfId="241">
       <calculatedColumnFormula>E50*C50</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10671,18 +10731,18 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A94:H127" totalsRowShown="0" headerRowDxfId="238" headerRowBorderDxfId="237" tableBorderDxfId="236" totalsRowBorderDxfId="235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A94:H127" totalsRowShown="0" headerRowDxfId="240" headerRowBorderDxfId="239" tableBorderDxfId="238" totalsRowBorderDxfId="237">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SPACE" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Equipment" dataDxfId="233"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Wattage" dataDxfId="232"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Cs" dataDxfId="231"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Cl" dataDxfId="230"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CLF" dataDxfId="229"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Qs (W)" dataDxfId="228">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SPACE" dataDxfId="236"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Equipment" dataDxfId="235"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Wattage" dataDxfId="234"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Cs" dataDxfId="233"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Cl" dataDxfId="232"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CLF" dataDxfId="231"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Qs (W)" dataDxfId="230">
       <calculatedColumnFormula>C95*D95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Qw (W)" dataDxfId="227">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Qw (W)" dataDxfId="229">
       <calculatedColumnFormula>E95*C95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10691,18 +10751,18 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A4:H48" totalsRowShown="0" headerRowDxfId="226" headerRowBorderDxfId="225" tableBorderDxfId="224" totalsRowBorderDxfId="223">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A4:H48" totalsRowShown="0" headerRowDxfId="228" headerRowBorderDxfId="227" tableBorderDxfId="226" totalsRowBorderDxfId="225">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SPACE" dataDxfId="222"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="U" dataDxfId="221"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Area (m2)" dataDxfId="220"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="CLTDmax" dataDxfId="219"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Ti" dataDxfId="218"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Tave" dataDxfId="217"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="CLTDadj" dataDxfId="216">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SPACE" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="U" dataDxfId="223"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Area (m2)" dataDxfId="222"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="CLTDmax" dataDxfId="221"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Ti" dataDxfId="220"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Tave" dataDxfId="219"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="CLTDadj" dataDxfId="218">
       <calculatedColumnFormula>((D5*0.75)+(25-E5)+(F5-29))*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Q(W)" dataDxfId="215">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Q(W)" dataDxfId="217">
       <calculatedColumnFormula>B5*C5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10711,17 +10771,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A94:G197" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A94:G197" totalsRowShown="0" headerRowDxfId="216" headerRowBorderDxfId="215" tableBorderDxfId="214" totalsRowBorderDxfId="213">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Space" dataDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Spaces" dataDxfId="209"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="U" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="A" dataDxfId="207">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Space" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Spaces" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="U" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="A" dataDxfId="209">
       <calculatedColumnFormula>References!AM4-References!AL4-References!AK4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Ti" dataDxfId="206"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Ti2" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Q" dataDxfId="204">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Ti" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Ti2" dataDxfId="207"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Q" dataDxfId="206">
       <calculatedColumnFormula>ABS(C95*D95*(F95-E95))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10730,17 +10790,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A201:G295" totalsRowShown="0" headerRowDxfId="203" headerRowBorderDxfId="202" tableBorderDxfId="201" totalsRowBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A201:G295" totalsRowShown="0" headerRowDxfId="205" headerRowBorderDxfId="204" tableBorderDxfId="203" totalsRowBorderDxfId="202">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Space" dataDxfId="199"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Spaces" dataDxfId="198"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="U" dataDxfId="197"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="A" dataDxfId="196">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Space" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Spaces" dataDxfId="200"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="U" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="A" dataDxfId="198">
       <calculatedColumnFormula>References!AQ4-References!AP4-References!AO4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Ti" dataDxfId="195"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Ti2" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Q" dataDxfId="193">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Ti" dataDxfId="197"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Ti2" dataDxfId="196"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Q" dataDxfId="195">
       <calculatedColumnFormula>ABS(C202*D202*(F202-E202))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10749,17 +10809,17 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A3:G89" totalsRowShown="0" headerRowDxfId="192" headerRowBorderDxfId="191" tableBorderDxfId="190" totalsRowBorderDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A3:G89" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Space" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Spaces" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="U" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="A" dataDxfId="185">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Space" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Spaces" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="U" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="A" dataDxfId="22">
       <calculatedColumnFormula>References!AI4-References!AH4-References!AG4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Ti" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Ti2" dataDxfId="183"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Q" dataDxfId="182">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Ti" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Ti2" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Q" dataDxfId="19">
       <calculatedColumnFormula>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10768,25 +10828,26 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:J40" totalsRowShown="0" headerRowDxfId="181" dataDxfId="179" headerRowBorderDxfId="180" tableBorderDxfId="178" totalsRowBorderDxfId="177">
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SPACE" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Occ" dataDxfId="174" totalsRowDxfId="173"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="L/s" dataDxfId="172" totalsRowDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:K40" totalsRowShown="0" headerRowDxfId="194" dataDxfId="192" headerRowBorderDxfId="193" tableBorderDxfId="191" totalsRowBorderDxfId="190">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SPACE" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Occ" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="L/s" dataDxfId="185" totalsRowDxfId="184">
       <calculatedColumnFormula>B4*References!AS4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="To" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Ti" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Wo" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Wi" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Qs (W)" dataDxfId="162" totalsRowDxfId="161">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="To" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Ti" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Wo" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Wi" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Qs (W)" dataDxfId="175" totalsRowDxfId="174">
       <calculatedColumnFormula>ABS(1.232*C4*(D4-E4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Qw (W)" dataDxfId="160">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Qw (W)" dataDxfId="173">
       <calculatedColumnFormula>ABS(3000*C4*(F4-G4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50A509FF-7BEA-4816-AC71-6803F2154597}" name="Column1" dataDxfId="2" totalsRowDxfId="3">
-      <calculatedColumnFormula>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{9079F61E-220C-499E-ABA0-0F86347EC19E}" name="Area" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{FF77AB06-4124-4F4F-B1B4-ADF4FE72722D}" name="Column1" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10794,26 +10855,26 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A45:J89" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A45:J89" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169" totalsRowBorderDxfId="168">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SPACE" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Occ." dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="L/s" dataDxfId="152">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SPACE" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Occ." dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="L/s" dataDxfId="165">
       <calculatedColumnFormula>B46*References!AT4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="To" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Ti" dataDxfId="150"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Wo" dataDxfId="149"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Wi" dataDxfId="148">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="To" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Ti" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Wo" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Wi" dataDxfId="161">
       <calculatedColumnFormula>_xlfn.IFS(E46=22.5,0.00848061,E46=22,0.00821976,E46=24,0.00929323)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="Qs(W)" dataDxfId="147">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="Qs(W)" dataDxfId="160">
       <calculatedColumnFormula>ABS(1.232*C46*(D46-E46))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="Ql(W)" dataDxfId="146">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="Ql(W)" dataDxfId="159">
       <calculatedColumnFormula>ABS(3000*C46*(F46-G46))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C4326E1-2CFD-41B1-9A69-1696EA1A9ECF}" name="Column1" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{1C4326E1-2CFD-41B1-9A69-1696EA1A9ECF}" name="Column1" dataDxfId="158">
       <calculatedColumnFormula>Table18[[#This Row],[L/s]]/Table18[[#This Row],[Occ.]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10822,26 +10883,26 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A94:J126" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142" totalsRowBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A94:J126" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Space" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Occ." dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="L/s" dataDxfId="138">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Space" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Occ." dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="L/s" dataDxfId="150">
       <calculatedColumnFormula>B95*References!AU4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="To" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Ti" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Wo" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Wi" dataDxfId="134">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="To" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Ti" dataDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Wo" dataDxfId="147"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Wi" dataDxfId="146">
       <calculatedColumnFormula>_xlfn.IFS(E95=22.5,0.00848031,E95=24,0.009293235,E95=22,0.00821976)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Qs(W)" dataDxfId="133">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Qs(W)" dataDxfId="145">
       <calculatedColumnFormula>ABS(1.232*C95*(D95-E95))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Ql(W)" dataDxfId="132">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Ql(W)" dataDxfId="144">
       <calculatedColumnFormula>ABS(3000*C95*(F95-G95))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CF665D1-4AA0-4D3B-843D-424EC0815E5C}" name="Column1" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{2CF665D1-4AA0-4D3B-843D-424EC0815E5C}" name="Column1" dataDxfId="143">
       <calculatedColumnFormula>Table19[[#This Row],[L/s]]/Table19[[#This Row],[Occ.]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10850,29 +10911,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A88:K130" totalsRowShown="0" headerRowDxfId="378" headerRowBorderDxfId="377" tableBorderDxfId="376" totalsRowBorderDxfId="375">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A88:K130" totalsRowShown="0" headerRowDxfId="380" headerRowBorderDxfId="379" tableBorderDxfId="378" totalsRowBorderDxfId="377">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Space" dataDxfId="374"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Orientation" dataDxfId="373"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="U" dataDxfId="372"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="A(m^2)" dataDxfId="371">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Space" dataDxfId="376"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Orientation" dataDxfId="375"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="U" dataDxfId="374"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="A(m^2)" dataDxfId="373">
       <calculatedColumnFormula>(References!C41*4)-(References!B41*1)-(References!A41*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLTDsel" dataDxfId="370">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLTDsel" dataDxfId="372">
       <calculatedColumnFormula>_xlfn.IFS(B89="E",25,B89="N",13,B89="W",33,B89="S",22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="LM" dataDxfId="369">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="LM" dataDxfId="371">
       <calculatedColumnFormula>_xlfn.IFS(B89="E",-0.55,B89="N",2.22,B89="W",-0.55,B89="S",-3.88)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="k" dataDxfId="368"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ti" dataDxfId="367"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tave" dataDxfId="366">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="k" dataDxfId="370"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ti" dataDxfId="369"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tave" dataDxfId="368">
       <calculatedColumnFormula>(References!T$4)-(References!T$3/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="CLTD adj" dataDxfId="365">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="CLTD adj" dataDxfId="367">
       <calculatedColumnFormula>(E89+F89)*G89+(25-H89)+(I89-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Q(W)" dataDxfId="364">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Q(W)" dataDxfId="366">
       <calculatedColumnFormula>C89*D89*E89</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10881,24 +10942,24 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table20" displayName="Table20" ref="A94:J126" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table20" displayName="Table20" ref="A94:J126" totalsRowShown="0" headerRowDxfId="142" dataDxfId="140" headerRowBorderDxfId="141" tableBorderDxfId="139" totalsRowBorderDxfId="138">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SPACE" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Occ" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Gain/person" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Sensible" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Latent" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CLF" dataDxfId="121"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Qs (W)" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SPACE" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Occ" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Gain/person" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Sensible" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Latent" dataDxfId="133"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CLF" dataDxfId="132"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Qs (W)" dataDxfId="131">
       <calculatedColumnFormula>B95*C95*D95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Ql (W)" dataDxfId="119">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Ql (W)" dataDxfId="130">
       <calculatedColumnFormula>B95*C95*E95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C7270352-DCB9-45F2-96C6-7CD764B68BF1}" name="Qs/p" dataDxfId="48">
+    <tableColumn id="9" xr3:uid="{C7270352-DCB9-45F2-96C6-7CD764B68BF1}" name="Qs/p" dataDxfId="129">
       <calculatedColumnFormula>Table20[[#This Row],[Qs (W)]]/Table20[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A6408986-3097-491D-A3C3-E925273CB26C}" name="Ql/p" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{A6408986-3097-491D-A3C3-E925273CB26C}" name="Ql/p" dataDxfId="128">
       <calculatedColumnFormula>Table20[[#This Row],[Ql (W)]]/Table20[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10907,24 +10968,24 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table21" displayName="Table21" ref="A45:J89" totalsRowShown="0" headerRowDxfId="118" dataDxfId="116" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table21" displayName="Table21" ref="A45:J89" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SPACE" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Occ" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Gain/person" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Sensible" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Latent" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CLF" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Qs (W)" dataDxfId="107">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SPACE" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Occ" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Gain/person" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Sensible" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Latent" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CLF" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Qs (W)" dataDxfId="116">
       <calculatedColumnFormula>B46*C46*D46*F46</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="Ql (W)" dataDxfId="106">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="Ql (W)" dataDxfId="115">
       <calculatedColumnFormula>B46*C46*E46</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9C156E53-3836-4E11-AE25-61319BB9C97D}" name="Qs/p" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{9C156E53-3836-4E11-AE25-61319BB9C97D}" name="Qs/p" dataDxfId="114">
       <calculatedColumnFormula>Table21[[#This Row],[Qs (W)]]/Table21[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BECB2526-6C56-4872-A9D8-7F5203A93240}" name="Ql/p" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{BECB2526-6C56-4872-A9D8-7F5203A93240}" name="Ql/p" dataDxfId="113">
       <calculatedColumnFormula>Table21[[#This Row],[Ql (W)]]/Table21[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10933,24 +10994,24 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table22" displayName="Table22" ref="A3:J40" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table22" displayName="Table22" ref="A3:J40" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="108">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="SPACE" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Occ" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Gain/person" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Sensible" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Latent" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CLF" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Qs (W)" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="SPACE" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Occ" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Gain/person" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Sensible" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Latent" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CLF" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Qs (W)" dataDxfId="101">
       <calculatedColumnFormula>B4*C4*D4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Ql (W)" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Ql (W)" dataDxfId="100">
       <calculatedColumnFormula>C4*E4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{81A2A970-A71D-4369-BF27-74645C3525D3}" name="Qs/p" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{81A2A970-A71D-4369-BF27-74645C3525D3}" name="Qs/p" dataDxfId="99">
       <calculatedColumnFormula>Table22[[#This Row],[Qs (W)]]/Table22[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00B2EC34-FEC5-40F4-8C34-2A32011D0D59}" name="Ql/p" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{00B2EC34-FEC5-40F4-8C34-2A32011D0D59}" name="Ql/p" dataDxfId="98">
       <calculatedColumnFormula>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10959,17 +11020,17 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{64F8AD3E-DA26-4AB7-A8B3-FED43A0DA675}" name="Table26" displayName="Table26" ref="A3:G62" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{64F8AD3E-DA26-4AB7-A8B3-FED43A0DA675}" name="Table26" displayName="Table26" ref="A3:G62" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3D15F0BA-E56A-48AD-8475-8EDB97578663}" name="Space 1" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{E6499B88-C35B-459A-B806-100CCDCDCA2B}" name="Space 2" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{D2D2D7C6-259A-4E15-80D5-76BCB5F2755C}" name="U" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{0764F60A-9AFF-45C7-9B37-2675DAC3354B}" name="Area" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{3D15F0BA-E56A-48AD-8475-8EDB97578663}" name="Space 1" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{E6499B88-C35B-459A-B806-100CCDCDCA2B}" name="Space 2" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{D2D2D7C6-259A-4E15-80D5-76BCB5F2755C}" name="U" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{0764F60A-9AFF-45C7-9B37-2675DAC3354B}" name="Area" dataDxfId="89">
       <calculatedColumnFormula>References!AW4*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{089F04A6-59E5-4D01-9963-34848ABB08D8}" name="Ti" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{6D9BF11B-E4DD-49A6-BD0B-97AA2C4E05C7}" name="To" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{5A992B19-DB89-40D9-A7B7-A2A63D74CAB2}" name="Qs (W)" dataDxfId="94">
+    <tableColumn id="5" xr3:uid="{089F04A6-59E5-4D01-9963-34848ABB08D8}" name="Ti" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{6D9BF11B-E4DD-49A6-BD0B-97AA2C4E05C7}" name="To" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{5A992B19-DB89-40D9-A7B7-A2A63D74CAB2}" name="Qs (W)" dataDxfId="86">
       <calculatedColumnFormula>ABS(C4*D4*(F4-E4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10978,17 +11039,17 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{EBF95BE4-81ED-476D-A997-E43089A78204}" name="Table27" displayName="Table27" ref="A66:G136" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{EBF95BE4-81ED-476D-A997-E43089A78204}" name="Table27" displayName="Table27" ref="A66:G136" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{69C0A91B-A3FC-4753-82E6-7AD406608DA3}" name="Space 1" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{AEE5E517-E89F-4369-AB32-02BDCE5550D6}" name="Space 2" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{534EF880-A31A-4F02-8D63-58BC01851CB2}" name="U" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{ADBF381F-28C0-4B1C-A4BB-4EC3FA91953E}" name="Area" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{69C0A91B-A3FC-4753-82E6-7AD406608DA3}" name="Space 1" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{AEE5E517-E89F-4369-AB32-02BDCE5550D6}" name="Space 2" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{534EF880-A31A-4F02-8D63-58BC01851CB2}" name="U" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{ADBF381F-28C0-4B1C-A4BB-4EC3FA91953E}" name="Area" dataDxfId="77">
       <calculatedColumnFormula>2*References!AX4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{08AF1E93-1E3D-45EA-A5CD-31D81BB6DB0E}" name="Ti" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{83FA9F78-25A4-454A-8AD3-5A7975FA8352}" name="To" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{F7BB9612-AFD7-41F9-9A2B-39116DFCDF64}" name="Qs (W)" dataDxfId="82">
+    <tableColumn id="5" xr3:uid="{08AF1E93-1E3D-45EA-A5CD-31D81BB6DB0E}" name="Ti" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{83FA9F78-25A4-454A-8AD3-5A7975FA8352}" name="To" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{F7BB9612-AFD7-41F9-9A2B-39116DFCDF64}" name="Qs (W)" dataDxfId="74">
       <calculatedColumnFormula>ABS(C67*D67*(F67-E67))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10997,17 +11058,17 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{88EC8EFE-4C0E-46A7-9559-595CD2FC3D4F}" name="Table31" displayName="Table31" ref="A140:G200" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{88EC8EFE-4C0E-46A7-9559-595CD2FC3D4F}" name="Table31" displayName="Table31" ref="A140:G200" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AEFCFF34-ED8A-4D1B-928C-1A4AC9803B91}" name="Space 1" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{55781A89-E632-4F5A-B9AE-B40CDA4E25A8}" name="Space 2" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{16E0CBE7-3940-41CE-8530-A2D6900F4684}" name="U" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9A5A6631-C755-4076-9BF0-63662EC62164}" name="Area" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{AEFCFF34-ED8A-4D1B-928C-1A4AC9803B91}" name="Space 1" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{55781A89-E632-4F5A-B9AE-B40CDA4E25A8}" name="Space 2" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{16E0CBE7-3940-41CE-8530-A2D6900F4684}" name="U" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{9A5A6631-C755-4076-9BF0-63662EC62164}" name="Area" dataDxfId="66">
       <calculatedColumnFormula>2*References!AY4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{31F594E5-5372-4099-AA2F-E0C7F12066AA}" name="Ti" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{28C0F865-E043-41E8-A8E9-9B5DE187E7CF}" name="To" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{A12774DA-FA6C-45F2-A816-9E6CC1F9185F}" name="Qs (W)" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{31F594E5-5372-4099-AA2F-E0C7F12066AA}" name="Ti" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{28C0F865-E043-41E8-A8E9-9B5DE187E7CF}" name="To" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{A12774DA-FA6C-45F2-A816-9E6CC1F9185F}" name="Qs (W)" dataDxfId="63">
       <calculatedColumnFormula>ABS(C141*D141*(F141-E141))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11016,16 +11077,16 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table23" displayName="Table23" ref="A3:F62" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table23" displayName="Table23" ref="A3:F62" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="SPACE" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="W" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="SPACE" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="W" dataDxfId="56">
       <calculatedColumnFormula>13*References!BA4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Fu" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Fb" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="CLF" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Qs (W)" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Fu" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Fb" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="CLF" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Qs (W)" dataDxfId="52">
       <calculatedColumnFormula>B4*C4*D4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11034,16 +11095,16 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table24" displayName="Table24" ref="A66:F116" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table24" displayName="Table24" ref="A66:F116" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="SPACE" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="W" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="SPACE" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="W" dataDxfId="45">
       <calculatedColumnFormula>13*References!BB4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Fu" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Fb" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="CLF" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Qs (W)" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Fu" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Fb" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="CLF" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Qs (W)" dataDxfId="41">
       <calculatedColumnFormula>B67*C67*D67*E67</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11052,14 +11113,14 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table25" displayName="Table25" ref="A120:F166" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table25" displayName="Table25" ref="A120:F166" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="SPACE" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="W" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Fu" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Fb" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="CLF" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Qs (W)" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="SPACE" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="W" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Fu" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Fb" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="CLF" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Qs (W)" dataDxfId="30">
       <calculatedColumnFormula>B121*C121*D121*E121</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11068,21 +11129,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A41:K84" totalsRowShown="0" headerRowDxfId="363" headerRowBorderDxfId="362" tableBorderDxfId="361" totalsRowBorderDxfId="360">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A41:K84" totalsRowShown="0" headerRowDxfId="365" headerRowBorderDxfId="364" tableBorderDxfId="363" totalsRowBorderDxfId="362">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Space" dataDxfId="359"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Orientation" dataDxfId="358"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="U" dataDxfId="357"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="A(m^2)" dataDxfId="356"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CLTDsel" dataDxfId="355"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="LM" dataDxfId="354"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="k" dataDxfId="353"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Ti" dataDxfId="352"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tave" dataDxfId="351"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="CLTD adj" dataDxfId="350">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Space" dataDxfId="361"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Orientation" dataDxfId="360"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="U" dataDxfId="359"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="A(m^2)" dataDxfId="358"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CLTDsel" dataDxfId="357"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="LM" dataDxfId="356"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="k" dataDxfId="355"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Ti" dataDxfId="354"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tave" dataDxfId="353"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="CLTD adj" dataDxfId="352">
       <calculatedColumnFormula>(E42+F42)*G42+(25-H42)+(I42-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Q(W)" dataDxfId="349">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Q(W)" dataDxfId="351">
       <calculatedColumnFormula>C42*D42*J42</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11091,27 +11152,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="348" headerRowBorderDxfId="347" tableBorderDxfId="346" totalsRowBorderDxfId="345">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="350" headerRowBorderDxfId="349" tableBorderDxfId="348" totalsRowBorderDxfId="347">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="344"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="343"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="342"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="341"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="340"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="339">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="346"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="345"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="344"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="343"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="342"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="341">
       <calculatedColumnFormula>References!E5*References!F5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="338">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="340">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",685,B4="N",120,B4="W",685,B4="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="337">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="339">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",0.8,B4="N",0.91,B4="W",0.82,B4="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="336"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="335">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="338"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="337">
       <calculatedColumnFormula>G4*H4*F4*I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="334">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="336">
       <calculatedColumnFormula>ABS((C4*F4)*(D4-E4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11120,27 +11181,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A73:K99" totalsRowShown="0" headerRowDxfId="333" dataDxfId="331" headerRowBorderDxfId="332" tableBorderDxfId="330" totalsRowBorderDxfId="329">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A73:K99" totalsRowShown="0" headerRowDxfId="335" dataDxfId="333" headerRowBorderDxfId="334" tableBorderDxfId="332" totalsRowBorderDxfId="331">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="328"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="327"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="326"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="325"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="324"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="323">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="330"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="329"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="328"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="327"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="326"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="325">
       <calculatedColumnFormula>References!E41*References!F41</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="322">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="324">
       <calculatedColumnFormula>_xlfn.IFS(B74="E",685,B74="N",120,B74="W",685,B74="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="321">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="323">
       <calculatedColumnFormula>_xlfn.IFS(B74="E",0.8,B74="N",0.91,B74="W",0.82,B74="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="320"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="319">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="322"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="321">
       <calculatedColumnFormula>G74*H74*F74*I74</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="318">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="320">
       <calculatedColumnFormula>ABS((C74*F74)*(D74-E74))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11149,25 +11210,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A39:K68" totalsRowShown="0" headerRowDxfId="317" headerRowBorderDxfId="316" tableBorderDxfId="315" totalsRowBorderDxfId="314">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A39:K68" totalsRowShown="0" headerRowDxfId="319" headerRowBorderDxfId="318" tableBorderDxfId="317" totalsRowBorderDxfId="316">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="313"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="312"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="311"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="310"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="309"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="308"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="307">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="315"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="314"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="313"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="312"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="311"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="310"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="309">
       <calculatedColumnFormula>_xlfn.IFS(B40="N",120,B40="E",685,B40="S",230,B40="W",685)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="306">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="308">
       <calculatedColumnFormula>_xlfn.IFS(B40="N",0.91,B40="E",0.8,B40="S",0.83,B40="W",0.82)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="305"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="304">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="307"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="306">
       <calculatedColumnFormula>I40*H40*G40*F40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="303">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="305">
       <calculatedColumnFormula>ABS((C40*F40)*(D40-E40))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11176,25 +11237,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="302" headerRowBorderDxfId="301" tableBorderDxfId="300" totalsRowBorderDxfId="299">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="304" headerRowBorderDxfId="303" tableBorderDxfId="302" totalsRowBorderDxfId="301">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="298"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="297">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="300"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="299">
       <calculatedColumnFormula>References!AB4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="296">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="298">
       <calculatedColumnFormula>((0.15+0.01*3+0.007*(D78-E78))*B78)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="295"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="294"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="293"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="292">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="297"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="296"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="295"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="294">
       <calculatedColumnFormula>_xlfn.IFS(E78=22.5,0.00848061,E78=22,0.00821976,E78=24,0.00929323,E78=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="291">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="293">
       <calculatedColumnFormula>ABS(1.23*C78*(D78-E78))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="290">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="292">
       <calculatedColumnFormula>ABS(3000*C78*(F78-G78))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11203,25 +11264,25 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I236" totalsRowShown="0" headerRowDxfId="289" headerRowBorderDxfId="288" tableBorderDxfId="287" totalsRowBorderDxfId="286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I236" totalsRowShown="0" headerRowDxfId="291" headerRowBorderDxfId="290" tableBorderDxfId="289" totalsRowBorderDxfId="288">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="285"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="284">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="287"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="286">
       <calculatedColumnFormula>References!AE4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="283">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="285">
       <calculatedColumnFormula>(References!AD4*B163)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="282"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="281"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="280"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="279">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="284"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="283"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="282"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="281">
       <calculatedColumnFormula>_xlfn.IFS(E163=22.5,0.00848031,E163=24,0.009293235,E163=22,0.00821976,E163=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="278">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="280">
       <calculatedColumnFormula>ABS(1.232*(D163-E163)*C163)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="277">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="279">
       <calculatedColumnFormula>ABS(3000*C163*(F163-G163))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11230,23 +11291,23 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:I72" totalsRowShown="0" headerRowDxfId="276" headerRowBorderDxfId="275" tableBorderDxfId="274" totalsRowBorderDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:I72" totalsRowShown="0" headerRowDxfId="278" headerRowBorderDxfId="277" tableBorderDxfId="276" totalsRowBorderDxfId="275">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="272"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="271">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="274"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="273">
       <calculatedColumnFormula>References!Z4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="270">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="272">
       <calculatedColumnFormula>(References!Y4*B4)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="269"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="268"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="267"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="266"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="265">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="271"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="270"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="269"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="268"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="267">
       <calculatedColumnFormula>ABS((1.232*(D4-E4)*C4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="264">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="266">
       <calculatedColumnFormula>ABS(3000*C4*(F4-G4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11554,8 +11615,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11574,34 +11635,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -11638,14 +11699,14 @@
         <v>10</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="N3" s="170" t="s">
+      <c r="N3" s="185" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -11686,14 +11747,14 @@
         <v>1492.92</v>
       </c>
       <c r="M4" s="149"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171" t="s">
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -11734,17 +11795,17 @@
         <v>564.59519999999998</v>
       </c>
       <c r="M5" s="149"/>
-      <c r="N5" s="172" t="s">
+      <c r="N5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172">
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187">
         <f>K38</f>
         <v>39227.857343999996</v>
       </c>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
@@ -11785,17 +11846,17 @@
         <v>204.66575999999998</v>
       </c>
       <c r="M6" s="149"/>
-      <c r="N6" s="172" t="s">
+      <c r="N6" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172">
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187">
         <f>K85</f>
         <v>31364.094930011994</v>
       </c>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -11836,17 +11897,17 @@
         <v>177.847488</v>
       </c>
       <c r="M7" s="149"/>
-      <c r="N7" s="172" t="s">
+      <c r="N7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172">
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187">
         <f>K131</f>
         <v>48205.328184000005</v>
       </c>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -11887,17 +11948,17 @@
         <v>398.03961599999997</v>
       </c>
       <c r="M8" s="149"/>
-      <c r="N8" s="173" t="s">
+      <c r="N8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="166">
+      <c r="O8" s="188"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="181">
         <f>Q5+Q6+Q7</f>
         <v>118797.28045801198</v>
       </c>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -11938,12 +11999,12 @@
         <v>398.03961599999997</v>
       </c>
       <c r="M9" s="149"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -13076,19 +13137,19 @@
     </row>
     <row r="39" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="167" t="s">
+      <c r="A40" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="182"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
@@ -13240,7 +13301,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="210" t="s">
+      <c r="A45" s="180" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="152" t="s">
@@ -13277,7 +13338,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="210" t="s">
+      <c r="A46" s="180" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="152" t="s">
@@ -14795,19 +14856,19 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A87" s="168" t="s">
+      <c r="A87" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
-      <c r="F87" s="168"/>
-      <c r="G87" s="168"/>
-      <c r="H87" s="168"/>
-      <c r="I87" s="168"/>
-      <c r="J87" s="168"/>
-      <c r="K87" s="168"/>
+      <c r="B87" s="183"/>
+      <c r="C87" s="183"/>
+      <c r="D87" s="183"/>
+      <c r="E87" s="183"/>
+      <c r="F87" s="183"/>
+      <c r="G87" s="183"/>
+      <c r="H87" s="183"/>
+      <c r="I87" s="183"/>
+      <c r="J87" s="183"/>
+      <c r="K87" s="183"/>
     </row>
     <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
@@ -16664,26 +16725,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
       <c r="G1" s="111"/>
       <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
     </row>
@@ -16706,14 +16767,14 @@
       <c r="F3" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="185" t="s">
         <v>539</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
@@ -16736,14 +16797,14 @@
         <f>B4*C4*D4*E4</f>
         <v>411.74972279999997</v>
       </c>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171" t="s">
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="81" t="s">
@@ -16766,17 +16827,17 @@
         <f t="shared" ref="F5:F61" si="0">B5*C5*D5*E5</f>
         <v>106.14389759999999</v>
       </c>
-      <c r="J5" s="172" t="s">
+      <c r="J5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172">
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187">
         <f>F63</f>
         <v>19883.609740799991</v>
       </c>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
@@ -16799,17 +16860,17 @@
         <f t="shared" si="0"/>
         <v>57.317909999999991</v>
       </c>
-      <c r="J6" s="172" t="s">
+      <c r="J6" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172">
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187">
         <f>F117</f>
         <v>16958.066184539995</v>
       </c>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="81" t="s">
@@ -16832,17 +16893,17 @@
         <f t="shared" si="0"/>
         <v>119.581254</v>
       </c>
-      <c r="J7" s="172" t="s">
+      <c r="J7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172">
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187">
         <f>F167</f>
         <v>22702.400073599994</v>
       </c>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="81" t="s">
@@ -16865,17 +16926,17 @@
         <f>B8*C8*D8*E8</f>
         <v>134.1690012</v>
       </c>
-      <c r="J8" s="173" t="s">
+      <c r="J8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="186">
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="202">
         <f>M5+M6+M7</f>
         <v>59544.075998939981</v>
       </c>
-      <c r="N8" s="187"/>
-      <c r="O8" s="188"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="204"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
@@ -16898,12 +16959,12 @@
         <f t="shared" si="0"/>
         <v>134.51580479999998</v>
       </c>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="191"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="207"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
@@ -17148,23 +17209,23 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="199" t="s">
+      <c r="A21" s="169" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="200">
+      <c r="B21" s="170">
         <f>13*References!BA21</f>
         <v>1702.5865999999999</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="170">
         <v>0.75</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="170">
         <v>1.2</v>
       </c>
-      <c r="E21" s="200">
+      <c r="E21" s="170">
         <v>0.94</v>
       </c>
-      <c r="F21" s="201">
+      <c r="F21" s="171">
         <f t="shared" si="0"/>
         <v>1440.3882635999998</v>
       </c>
@@ -17592,23 +17653,23 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="173" t="s">
         <v>507</v>
       </c>
-      <c r="B41" s="200">
+      <c r="B41" s="170">
         <f>13*References!BA41</f>
         <v>8530.3269999999993</v>
       </c>
-      <c r="C41" s="200">
+      <c r="C41" s="170">
         <v>1</v>
       </c>
-      <c r="D41" s="200">
+      <c r="D41" s="170">
         <v>1.2</v>
       </c>
-      <c r="E41" s="200">
+      <c r="E41" s="170">
         <v>0.94</v>
       </c>
-      <c r="F41" s="201">
+      <c r="F41" s="171">
         <f t="shared" si="0"/>
         <v>9622.2088559999975</v>
       </c>
@@ -18097,14 +18158,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="167" t="s">
+      <c r="A65" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="167"/>
+      <c r="B65" s="182"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="182"/>
+      <c r="E65" s="182"/>
+      <c r="F65" s="182"/>
       <c r="G65" s="103"/>
       <c r="H65" s="103"/>
     </row>
@@ -18328,23 +18389,23 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="199" t="s">
+      <c r="A76" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="200">
+      <c r="B76" s="170">
         <f>13*References!BB13</f>
         <v>296.77699999999999</v>
       </c>
-      <c r="C76" s="200">
+      <c r="C76" s="170">
         <v>0.75</v>
       </c>
-      <c r="D76" s="200">
+      <c r="D76" s="170">
         <v>1.2</v>
       </c>
-      <c r="E76" s="200">
+      <c r="E76" s="170">
         <v>0.94</v>
       </c>
-      <c r="F76" s="201">
+      <c r="F76" s="171">
         <f t="shared" si="1"/>
         <v>251.07334199999997</v>
       </c>
@@ -19213,23 +19274,23 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="204" t="s">
+      <c r="A116" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="B116" s="205">
+      <c r="B116" s="175">
         <f>13*References!BB53</f>
         <v>8903.9174899999998</v>
       </c>
-      <c r="C116" s="205">
+      <c r="C116" s="175">
         <v>0.75</v>
       </c>
-      <c r="D116" s="205">
+      <c r="D116" s="175">
         <v>1.2</v>
       </c>
-      <c r="E116" s="205">
+      <c r="E116" s="175">
         <v>0.94</v>
       </c>
-      <c r="F116" s="206">
+      <c r="F116" s="176">
         <f>B116*C116*D116*E116</f>
         <v>7532.7141965399987</v>
       </c>
@@ -19244,14 +19305,14 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A119" s="168" t="s">
+      <c r="A119" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B119" s="168"/>
-      <c r="C119" s="168"/>
-      <c r="D119" s="168"/>
-      <c r="E119" s="168"/>
-      <c r="F119" s="168"/>
+      <c r="B119" s="183"/>
+      <c r="C119" s="183"/>
+      <c r="D119" s="183"/>
+      <c r="E119" s="183"/>
+      <c r="F119" s="183"/>
       <c r="G119" s="106"/>
       <c r="H119" s="106"/>
     </row>
@@ -19518,23 +19579,23 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="199" t="s">
+      <c r="A132" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="B132" s="200">
+      <c r="B132" s="170">
         <f>13*References!BC15</f>
         <v>296.77699999999999</v>
       </c>
-      <c r="C132" s="200">
+      <c r="C132" s="170">
         <v>0.75</v>
       </c>
-      <c r="D132" s="200">
+      <c r="D132" s="170">
         <v>1.2</v>
       </c>
-      <c r="E132" s="200">
+      <c r="E132" s="170">
         <v>0.94</v>
       </c>
-      <c r="F132" s="201">
+      <c r="F132" s="171">
         <f t="shared" si="2"/>
         <v>251.07334199999997</v>
       </c>
@@ -19870,23 +19931,23 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="199" t="s">
+      <c r="A148" s="169" t="s">
         <v>308</v>
       </c>
-      <c r="B148" s="200">
+      <c r="B148" s="170">
         <f>13*References!BC31</f>
         <v>305.27769999999998</v>
       </c>
-      <c r="C148" s="200">
+      <c r="C148" s="170">
         <v>0.75</v>
       </c>
-      <c r="D148" s="200">
+      <c r="D148" s="170">
         <v>1.2</v>
       </c>
-      <c r="E148" s="200">
+      <c r="E148" s="170">
         <v>0.94</v>
       </c>
-      <c r="F148" s="201">
+      <c r="F148" s="171">
         <f t="shared" si="2"/>
         <v>258.26493419999991</v>
       </c>
@@ -19958,45 +20019,45 @@
       </c>
     </row>
     <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="199" t="s">
+      <c r="A152" s="169" t="s">
         <v>312</v>
       </c>
-      <c r="B152" s="200">
+      <c r="B152" s="170">
         <f>13*References!BC35</f>
         <v>144.1336</v>
       </c>
-      <c r="C152" s="200">
+      <c r="C152" s="170">
         <v>1</v>
       </c>
-      <c r="D152" s="200">
+      <c r="D152" s="170">
         <v>1.2</v>
       </c>
-      <c r="E152" s="200">
+      <c r="E152" s="170">
         <v>0.94</v>
       </c>
-      <c r="F152" s="201">
+      <c r="F152" s="171">
         <f t="shared" si="2"/>
         <v>162.5827008</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="199" t="s">
+      <c r="A153" s="169" t="s">
         <v>313</v>
       </c>
-      <c r="B153" s="200">
+      <c r="B153" s="170">
         <f>13*References!BC36</f>
         <v>107.575</v>
       </c>
-      <c r="C153" s="200">
+      <c r="C153" s="170">
         <v>1</v>
       </c>
-      <c r="D153" s="200">
+      <c r="D153" s="170">
         <v>1.2</v>
       </c>
-      <c r="E153" s="200">
+      <c r="E153" s="170">
         <v>0.94</v>
       </c>
-      <c r="F153" s="201">
+      <c r="F153" s="171">
         <f t="shared" si="2"/>
         <v>121.3446</v>
       </c>
@@ -20024,45 +20085,45 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="199" t="s">
+      <c r="A155" s="169" t="s">
         <v>509</v>
       </c>
-      <c r="B155" s="200">
+      <c r="B155" s="170">
         <f>13*References!BC38</f>
         <v>2391.2694000000001</v>
       </c>
-      <c r="C155" s="200">
+      <c r="C155" s="170">
         <v>0.75</v>
       </c>
-      <c r="D155" s="200">
+      <c r="D155" s="170">
         <v>1.2</v>
       </c>
-      <c r="E155" s="200">
+      <c r="E155" s="170">
         <v>0.94</v>
       </c>
-      <c r="F155" s="201">
+      <c r="F155" s="171">
         <f t="shared" si="2"/>
         <v>2023.0139124</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="199" t="s">
+      <c r="A156" s="169" t="s">
         <v>316</v>
       </c>
-      <c r="B156" s="200">
+      <c r="B156" s="170">
         <f>13*References!BC39</f>
         <v>765.18130000000008</v>
       </c>
-      <c r="C156" s="200">
+      <c r="C156" s="170">
         <v>1</v>
       </c>
-      <c r="D156" s="200">
+      <c r="D156" s="170">
         <v>1.2</v>
       </c>
-      <c r="E156" s="200">
+      <c r="E156" s="170">
         <v>0.94</v>
       </c>
-      <c r="F156" s="201">
+      <c r="F156" s="171">
         <f t="shared" si="2"/>
         <v>863.12450639999997</v>
       </c>
@@ -20226,23 +20287,23 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="204" t="s">
+      <c r="A164" s="174" t="s">
         <v>510</v>
       </c>
-      <c r="B164" s="200">
+      <c r="B164" s="170">
         <f>13*References!BC47</f>
         <v>10504.1001</v>
       </c>
-      <c r="C164" s="205">
+      <c r="C164" s="175">
         <v>1</v>
       </c>
-      <c r="D164" s="205">
+      <c r="D164" s="175">
         <v>1.2</v>
       </c>
-      <c r="E164" s="205">
+      <c r="E164" s="175">
         <v>0.94</v>
       </c>
-      <c r="F164" s="206">
+      <c r="F164" s="176">
         <f t="shared" si="2"/>
         <v>11848.624912799998</v>
       </c>
@@ -20343,12 +20404,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="118" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="210" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
@@ -20470,11 +20531,11 @@
         <v>504</v>
       </c>
       <c r="B9" s="82">
+        <f>'VENTILATION LOAD'!Q8</f>
+        <v>42537.572</v>
+      </c>
+      <c r="C9" s="82">
         <f>'VENTILATION LOAD'!R8</f>
-        <v>42537.572</v>
-      </c>
-      <c r="C9" s="82">
-        <f>'VENTILATION LOAD'!S8</f>
         <v>83456.651898000026</v>
       </c>
       <c r="D9" s="82">
@@ -20562,12 +20623,45 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2514EB4D-F38C-422A-8BF4-8154D2F6CAA4}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" style="124" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="124"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BC106"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+      <selection activeCell="AS8" sqref="AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20601,17 +20695,17 @@
         <v>43</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="Y2" s="179" t="s">
+      <c r="Y2" s="194" t="s">
         <v>297</v>
       </c>
-      <c r="Z2" s="179"/>
+      <c r="Z2" s="194"/>
       <c r="AB2" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="179" t="s">
+      <c r="AD2" s="194" t="s">
         <v>318</v>
       </c>
-      <c r="AE2" s="179"/>
+      <c r="AE2" s="194"/>
       <c r="AG2" t="s">
         <v>543</v>
       </c>
@@ -20650,10 +20744,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="179"/>
+      <c r="B3" s="194"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
       </c>
@@ -23724,11 +23818,11 @@
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="194"/>
       <c r="Y38" s="47">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D37-'INFILTRATION LOAD'!E37)</f>
         <v>0.26400000000000001</v>
@@ -23803,11 +23897,11 @@
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A39" s="179" t="s">
+      <c r="A39" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
       <c r="Y39" s="47">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D38-'INFILTRATION LOAD'!E38)</f>
         <v>0.26400000000000001</v>
@@ -27343,47 +27437,47 @@
     <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <conditionalFormatting sqref="AB4:AB11 AB13:AB83">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB83">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>$K$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AI89">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$M$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AM106">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>$H$197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3:AQ3">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>$H$197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AQ97">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AW62">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX73">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$I$65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY4:AY63">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$J$180</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27409,34 +27503,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
     </row>
     <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
@@ -27472,14 +27566,14 @@
       <c r="K3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="170" t="s">
+      <c r="O3" s="185" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -27520,9 +27614,9 @@
         <f t="shared" ref="K4:K33" si="0">ABS((C4*F4)*(D4-E4))</f>
         <v>137.8656</v>
       </c>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
       <c r="R4" s="132" t="s">
         <v>541</v>
       </c>
@@ -27572,11 +27666,11 @@
         <f t="shared" si="0"/>
         <v>41.359679999999997</v>
       </c>
-      <c r="O5" s="172" t="s">
+      <c r="O5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
       <c r="R5" s="6">
         <f>J35</f>
         <v>14479.770250000001</v>
@@ -27629,11 +27723,11 @@
         <f t="shared" si="0"/>
         <v>10.856916</v>
       </c>
-      <c r="O6" s="172" t="s">
+      <c r="O6" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
       <c r="R6" s="6">
         <f>J69</f>
         <v>12911.636650000004</v>
@@ -27686,11 +27780,11 @@
         <f t="shared" si="0"/>
         <v>21.713832</v>
       </c>
-      <c r="O7" s="172" t="s">
+      <c r="O7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
       <c r="R7" s="6">
         <f>J100</f>
         <v>11242.204599999995</v>
@@ -27743,20 +27837,20 @@
         <f t="shared" si="0"/>
         <v>21.713832</v>
       </c>
-      <c r="O8" s="173" t="s">
+      <c r="O8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="174">
+      <c r="P8" s="188"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="192">
         <f>SUM(R5:R7)</f>
         <v>38633.611499999999</v>
       </c>
-      <c r="S8" s="174">
+      <c r="S8" s="192">
         <f>SUM(S5:S7)</f>
         <v>5763.8469070000001</v>
       </c>
-      <c r="T8" s="174">
+      <c r="T8" s="192">
         <f>T5+T6+T7</f>
         <v>44397.458406999998</v>
       </c>
@@ -27800,12 +27894,12 @@
         <f t="shared" si="0"/>
         <v>56.422000000000004</v>
       </c>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -28795,10 +28889,10 @@
       <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H35" s="176" t="s">
+      <c r="H35" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="176"/>
+      <c r="I35" s="189"/>
       <c r="J35" s="41">
         <f>SUM(J4:J33)</f>
         <v>14479.770250000001</v>
@@ -28809,15 +28903,15 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="176" t="s">
+      <c r="H36" s="189" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177">
+      <c r="I36" s="189"/>
+      <c r="J36" s="190">
         <f>J35+K35</f>
         <v>16506.69152</v>
       </c>
-      <c r="K36" s="178"/>
+      <c r="K36" s="191"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H37" s="3"/>
@@ -28826,19 +28920,19 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A38" s="168" t="s">
+      <c r="A38" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="168"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
     </row>
     <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
@@ -30007,10 +30101,10 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H69" s="176" t="s">
+      <c r="H69" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="I69" s="176"/>
+      <c r="I69" s="189"/>
       <c r="J69" s="41">
         <f>SUM(J40:J68)</f>
         <v>12911.636650000004</v>
@@ -30021,30 +30115,30 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H70" s="176" t="s">
+      <c r="H70" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="176"/>
-      <c r="J70" s="177">
+      <c r="I70" s="189"/>
+      <c r="J70" s="190">
         <f>J69+K69</f>
         <v>15097.460593000003</v>
       </c>
-      <c r="K70" s="178"/>
+      <c r="K70" s="191"/>
     </row>
     <row r="72" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A72" s="168" t="s">
+      <c r="A72" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="168"/>
-      <c r="C72" s="168"/>
-      <c r="D72" s="168"/>
-      <c r="E72" s="168"/>
-      <c r="F72" s="168"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="168"/>
-      <c r="I72" s="168"/>
-      <c r="J72" s="168"/>
-      <c r="K72" s="168"/>
+      <c r="B72" s="183"/>
+      <c r="C72" s="183"/>
+      <c r="D72" s="183"/>
+      <c r="E72" s="183"/>
+      <c r="F72" s="183"/>
+      <c r="G72" s="183"/>
+      <c r="H72" s="183"/>
+      <c r="I72" s="183"/>
+      <c r="J72" s="183"/>
+      <c r="K72" s="183"/>
     </row>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
@@ -31122,10 +31216,10 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H100" s="176" t="s">
+      <c r="H100" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="I100" s="176"/>
+      <c r="I100" s="189"/>
       <c r="J100" s="41">
         <f>SUM(J74:J99)</f>
         <v>11242.204599999995</v>
@@ -31136,18 +31230,27 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H101" s="176" t="s">
+      <c r="H101" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="I101" s="176"/>
-      <c r="J101" s="177">
+      <c r="I101" s="189"/>
+      <c r="J101" s="190">
         <f>J100+K100</f>
         <v>12793.306293999995</v>
       </c>
-      <c r="K101" s="178"/>
+      <c r="K101" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H70:I70"/>
@@ -31161,18 +31264,9 @@
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="A73:K99">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31194,8 +31288,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S238"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227"/>
+    <sheetView topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31218,32 +31312,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
       <c r="J1" s="126"/>
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
       <c r="J2" s="106"/>
       <c r="K2" s="106"/>
     </row>
@@ -31275,14 +31369,14 @@
       <c r="I3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="170" t="s">
+      <c r="L3" s="185" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -31316,9 +31410,9 @@
         <f t="shared" ref="I4:I35" si="1">ABS(3000*C4*(F4-G4))</f>
         <v>291.35822808945596</v>
       </c>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
       <c r="O4" s="132" t="s">
         <v>541</v>
       </c>
@@ -31361,11 +31455,11 @@
         <f t="shared" si="1"/>
         <v>82.010154749951994</v>
       </c>
-      <c r="L5" s="172" t="s">
+      <c r="L5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
       <c r="O5" s="6">
         <f>H73</f>
         <v>6335.2156108951121</v>
@@ -31411,11 +31505,11 @@
         <f t="shared" si="1"/>
         <v>58.418394054637488</v>
       </c>
-      <c r="L6" s="172" t="s">
+      <c r="L6" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
       <c r="O6" s="6">
         <f>H158</f>
         <v>5646.4769823865836</v>
@@ -31461,11 +31555,11 @@
         <f t="shared" si="1"/>
         <v>138.58842619511998</v>
       </c>
-      <c r="L7" s="172" t="s">
+      <c r="L7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="6">
         <f>H237</f>
         <v>5262.10371996711</v>
@@ -31511,20 +31605,20 @@
         <f t="shared" si="1"/>
         <v>21.203990166937498</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="174">
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="192">
         <f>SUM(O5:O7)</f>
         <v>17243.796313248808</v>
       </c>
-      <c r="P8" s="174">
+      <c r="P8" s="192">
         <f>SUM(P5:P7)</f>
         <v>36486.734712379381</v>
       </c>
-      <c r="Q8" s="174">
+      <c r="Q8" s="192">
         <f>Q5+Q6+Q7</f>
         <v>53730.531025628181</v>
       </c>
@@ -31561,12 +31655,12 @@
         <f t="shared" si="1"/>
         <v>136.74499963482148</v>
       </c>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
@@ -32016,8 +32110,8 @@
         <f t="shared" si="1"/>
         <v>98.622581446751994</v>
       </c>
-      <c r="P22" s="179"/>
-      <c r="Q22" s="179"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
     </row>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
@@ -32088,6 +32182,10 @@
         <f t="shared" si="1"/>
         <v>3117.460883068793</v>
       </c>
+      <c r="K24">
+        <f>Table9[[#This Row],[Volume]]/4</f>
+        <v>656.17899999999997</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -33686,10 +33784,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F73" s="176" t="s">
+      <c r="F73" s="189" t="s">
         <v>333</v>
       </c>
-      <c r="G73" s="176"/>
+      <c r="G73" s="189"/>
       <c r="H73" s="41">
         <f>SUM(H4:H72)</f>
         <v>6335.2156108951121</v>
@@ -33700,28 +33798,28 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F74" s="176" t="s">
+      <c r="F74" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="176"/>
-      <c r="H74" s="177">
+      <c r="G74" s="189"/>
+      <c r="H74" s="190">
         <f>H73+I73</f>
         <v>19798.437354162186</v>
       </c>
-      <c r="I74" s="178"/>
+      <c r="I74" s="191"/>
     </row>
     <row r="76" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A76" s="180" t="s">
+      <c r="A76" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="180"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
-      <c r="E76" s="180"/>
-      <c r="F76" s="180"/>
-      <c r="G76" s="180"/>
-      <c r="H76" s="180"/>
-      <c r="I76" s="180"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
+      <c r="F76" s="195"/>
+      <c r="G76" s="195"/>
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="38" t="s">
@@ -33854,7 +33952,7 @@
         <v>291.12103363200004</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>205</v>
       </c>
@@ -33888,7 +33986,7 @@
         <v>19.559986991999999</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="152" t="s">
         <v>230</v>
       </c>
@@ -33921,8 +34019,12 @@
         <f t="shared" si="7"/>
         <v>1046.7836077114641</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K82">
+        <f>(Table8[[#This Row],[Volume]]+B83+B84+B85+B86+B100)/4</f>
+        <v>707.74473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="152" t="s">
         <v>231</v>
       </c>
@@ -33956,7 +34058,7 @@
         <v>680.76599725892515</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="152" t="s">
         <v>232</v>
       </c>
@@ -33990,7 +34092,7 @@
         <v>374.17082238461018</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="152" t="s">
         <v>233</v>
       </c>
@@ -34024,7 +34126,7 @@
         <v>473.45241276999508</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="152" t="s">
         <v>234</v>
       </c>
@@ -34058,7 +34160,7 @@
         <v>678.81322287677506</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>124</v>
       </c>
@@ -34092,7 +34194,7 @@
         <v>291.37595572800001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>207</v>
       </c>
@@ -34126,7 +34228,7 @@
         <v>19.559986991999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>125</v>
       </c>
@@ -34160,7 +34262,7 @@
         <v>289.91015367600005</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>208</v>
       </c>
@@ -34194,7 +34296,7 @@
         <v>19.559986991999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>170</v>
       </c>
@@ -34228,7 +34330,7 @@
         <v>116.19179187616002</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>209</v>
       </c>
@@ -34262,7 +34364,7 @@
         <v>19.601834528640001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>171</v>
       </c>
@@ -34296,7 +34398,7 @@
         <v>118.28895098592001</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>210</v>
       </c>
@@ -34330,7 +34432,7 @@
         <v>19.545041443199999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>172</v>
       </c>
@@ -34364,7 +34466,7 @@
         <v>117.90486836127999</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>211</v>
       </c>
@@ -36477,10 +36579,10 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F158" s="181" t="s">
+      <c r="F158" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="G158" s="181"/>
+      <c r="G158" s="196"/>
       <c r="H158" s="147">
         <f>SUM(H78:H157)</f>
         <v>5646.4769823865836</v>
@@ -36491,28 +36593,28 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F159" s="176" t="s">
+      <c r="F159" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="G159" s="176"/>
-      <c r="H159" s="177">
+      <c r="G159" s="189"/>
+      <c r="H159" s="190">
         <f>I158+H158</f>
         <v>17350.05826720711</v>
       </c>
-      <c r="I159" s="178"/>
+      <c r="I159" s="191"/>
     </row>
     <row r="161" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A161" s="168" t="s">
+      <c r="A161" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B161" s="168"/>
-      <c r="C161" s="168"/>
-      <c r="D161" s="168"/>
-      <c r="E161" s="168"/>
-      <c r="F161" s="168"/>
-      <c r="G161" s="168"/>
-      <c r="H161" s="168"/>
-      <c r="I161" s="168"/>
+      <c r="B161" s="183"/>
+      <c r="C161" s="183"/>
+      <c r="D161" s="183"/>
+      <c r="E161" s="183"/>
+      <c r="F161" s="183"/>
+      <c r="G161" s="183"/>
+      <c r="H161" s="183"/>
+      <c r="I161" s="183"/>
       <c r="J161" s="106"/>
       <c r="K161" s="106"/>
     </row>
@@ -39066,10 +39168,10 @@
       </c>
     </row>
     <row r="237" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F237" s="176" t="s">
+      <c r="F237" s="189" t="s">
         <v>333</v>
       </c>
-      <c r="G237" s="176"/>
+      <c r="G237" s="189"/>
       <c r="H237" s="41">
         <f>SUM(H163:H232)</f>
         <v>5262.10371996711</v>
@@ -39080,18 +39182,25 @@
       </c>
     </row>
     <row r="238" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F238" s="176" t="s">
+      <c r="F238" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="G238" s="176"/>
-      <c r="H238" s="177">
+      <c r="G238" s="189"/>
+      <c r="H238" s="190">
         <f>I237+H237</f>
         <v>16582.035404258892</v>
       </c>
-      <c r="I238" s="178"/>
+      <c r="I238" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N9"/>
     <mergeCell ref="F238:G238"/>
     <mergeCell ref="F237:G237"/>
     <mergeCell ref="F73:G73"/>
@@ -39108,13 +39217,6 @@
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39134,7 +39236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
@@ -39149,29 +39251,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
       <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:17" s="118" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
       <c r="I2" s="103"/>
       <c r="J2" s="103"/>
       <c r="K2" s="103"/>
@@ -39201,14 +39303,14 @@
       <c r="H3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="182" t="s">
+      <c r="L3" s="198" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
     </row>
     <row r="4" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
@@ -39237,9 +39339,9 @@
         <f>C4*E4</f>
         <v>11.327999999999999</v>
       </c>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
       <c r="O4" s="133" t="s">
         <v>541</v>
       </c>
@@ -39277,11 +39379,11 @@
         <f t="shared" ref="H5:H44" si="1">C5*E5</f>
         <v>365.50400000000002</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
       <c r="O5" s="82">
         <f>G45</f>
         <v>5447.2492799999991</v>
@@ -39322,11 +39424,11 @@
         <f t="shared" si="1"/>
         <v>11.327999999999999</v>
       </c>
-      <c r="L6" s="184" t="s">
+      <c r="L6" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
       <c r="O6" s="82">
         <f>G90</f>
         <v>3484.8253440000008</v>
@@ -39367,11 +39469,11 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L7" s="184" t="s">
+      <c r="L7" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
       <c r="O7" s="82">
         <f>G128</f>
         <v>2187.573695999999</v>
@@ -39412,20 +39514,20 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="174">
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="192">
         <f>SUM(O5:O7)</f>
         <v>11119.64832</v>
       </c>
-      <c r="P8" s="174">
+      <c r="P8" s="192">
         <f>SUM(P5:P7)</f>
         <v>5615.9839999999995</v>
       </c>
-      <c r="Q8" s="174">
+      <c r="Q8" s="192">
         <f>Q5+Q6+Q7</f>
         <v>16735.632319999997</v>
       </c>
@@ -39457,12 +39559,12 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
     </row>
     <row r="10" spans="1:17" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
@@ -40461,10 +40563,10 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E45" s="185" t="s">
+      <c r="E45" s="197" t="s">
         <v>333</v>
       </c>
-      <c r="F45" s="185"/>
+      <c r="F45" s="197"/>
       <c r="G45" s="123">
         <f>SUM(G4:G44)</f>
         <v>5447.2492799999991</v>
@@ -40475,15 +40577,15 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="185" t="s">
+      <c r="E46" s="197" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185">
+      <c r="F46" s="197"/>
+      <c r="G46" s="197">
         <f>G45+H45</f>
         <v>8198.3852799999986</v>
       </c>
-      <c r="H46" s="185"/>
+      <c r="H46" s="197"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E47" s="49"/>
@@ -40492,16 +40594,16 @@
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A48" s="180" t="s">
+      <c r="A48" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="180"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="195"/>
+      <c r="H48" s="195"/>
       <c r="I48" s="125"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40982,7 +41084,7 @@
       <c r="A66" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="207" t="s">
+      <c r="B66" s="177" t="s">
         <v>381</v>
       </c>
       <c r="C66" s="152">
@@ -41544,7 +41646,7 @@
       <c r="A86" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="207" t="s">
+      <c r="B86" s="177" t="s">
         <v>381</v>
       </c>
       <c r="C86" s="152">
@@ -41628,7 +41730,7 @@
       <c r="A89" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="208" t="s">
+      <c r="B89" s="178" t="s">
         <v>415</v>
       </c>
       <c r="C89" s="158">
@@ -41653,10 +41755,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E90" s="185" t="s">
+      <c r="E90" s="197" t="s">
         <v>333</v>
       </c>
-      <c r="F90" s="185"/>
+      <c r="F90" s="197"/>
       <c r="G90" s="72">
         <f>SUM(G50:G89)</f>
         <v>3484.8253440000008</v>
@@ -41667,15 +41769,15 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E91" s="185" t="s">
+      <c r="E91" s="197" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="185"/>
-      <c r="G91" s="185">
+      <c r="F91" s="197"/>
+      <c r="G91" s="197">
         <f>G90+H90</f>
         <v>5244.8381440000012</v>
       </c>
-      <c r="H91" s="185"/>
+      <c r="H91" s="197"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E92" s="49"/>
@@ -41684,16 +41786,16 @@
       <c r="H92" s="49"/>
     </row>
     <row r="93" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A93" s="168" t="s">
+      <c r="A93" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="168"/>
-      <c r="C93" s="168"/>
-      <c r="D93" s="168"/>
-      <c r="E93" s="168"/>
-      <c r="F93" s="168"/>
-      <c r="G93" s="168"/>
-      <c r="H93" s="168"/>
+      <c r="B93" s="183"/>
+      <c r="C93" s="183"/>
+      <c r="D93" s="183"/>
+      <c r="E93" s="183"/>
+      <c r="F93" s="183"/>
+      <c r="G93" s="183"/>
+      <c r="H93" s="183"/>
       <c r="I93" s="106"/>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -42370,7 +42472,7 @@
       <c r="A118" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="B118" s="207" t="s">
+      <c r="B118" s="177" t="s">
         <v>381</v>
       </c>
       <c r="C118" s="152">
@@ -42574,7 +42676,7 @@
       <c r="A125" s="151" t="s">
         <v>316</v>
       </c>
-      <c r="B125" s="209" t="s">
+      <c r="B125" s="179" t="s">
         <v>423</v>
       </c>
       <c r="C125" s="152">
@@ -42630,7 +42732,7 @@
       <c r="A127" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="B127" s="208" t="s">
+      <c r="B127" s="178" t="s">
         <v>424</v>
       </c>
       <c r="C127" s="158">
@@ -42655,10 +42757,10 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E128" s="185" t="s">
+      <c r="E128" s="197" t="s">
         <v>333</v>
       </c>
-      <c r="F128" s="185"/>
+      <c r="F128" s="197"/>
       <c r="G128" s="72">
         <f>SUM(G95:G127)</f>
         <v>2187.573695999999</v>
@@ -42669,18 +42771,27 @@
       </c>
     </row>
     <row r="129" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E129" s="185" t="s">
+      <c r="E129" s="197" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="185"/>
-      <c r="G129" s="185">
+      <c r="F129" s="197"/>
+      <c r="G129" s="197">
         <f>G128+H128</f>
         <v>3292.408895999999</v>
       </c>
-      <c r="H129" s="185"/>
+      <c r="H129" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="E129:F129"/>
     <mergeCell ref="G129:H129"/>
     <mergeCell ref="E128:F128"/>
@@ -42694,15 +42805,6 @@
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -42732,48 +42834,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="118" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
     </row>
     <row r="2" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="201" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="L3" s="170" t="s">
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="L3" s="185" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
@@ -42801,14 +42903,14 @@
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171" t="s">
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
@@ -42837,16 +42939,16 @@
         <f>B5*C5*G5</f>
         <v>1159.3501026231174</v>
       </c>
-      <c r="L5" s="172" t="s">
+      <c r="L5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172">
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187">
         <v>0</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -42875,17 +42977,17 @@
         <f t="shared" ref="H6:H46" si="1">B6*C6*G6</f>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L6" s="172" t="s">
+      <c r="L6" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172">
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187">
         <f>I87</f>
         <v>0</v>
       </c>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
@@ -42914,17 +43016,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L7" s="172" t="s">
+      <c r="L7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172">
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187">
         <f>H49</f>
         <v>33330.762702411113</v>
       </c>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
@@ -42953,17 +43055,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L8" s="173" t="s">
+      <c r="L8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="186">
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="202">
         <f>O5+O6+O7</f>
         <v>33330.762702411113</v>
       </c>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="188"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="204"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
@@ -42992,12 +43094,12 @@
         <f t="shared" si="1"/>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="191"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="206"/>
+      <c r="Q9" s="207"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
@@ -44421,12 +44523,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="L8:N9"/>
     <mergeCell ref="O8:Q9"/>
     <mergeCell ref="L4:N4"/>
@@ -44435,6 +44531,12 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -44448,8 +44550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P296"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44460,28 +44562,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
       <c r="H1" s="131"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:16" s="118" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
       <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -44506,14 +44608,14 @@
       <c r="G3" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="185" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
@@ -44539,14 +44641,18 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>331.42823999999996</v>
       </c>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171" t="s">
+      <c r="H4">
+        <f>Table14[[#This Row],[A]]+D5</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="81"/>
@@ -44570,17 +44676,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K5" s="172" t="s">
+      <c r="K5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172">
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187">
         <f>G90</f>
         <v>18554.539067999998</v>
       </c>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
@@ -44606,17 +44712,21 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>41.530319999999996</v>
       </c>
-      <c r="K6" s="172" t="s">
+      <c r="H6">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K6" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172">
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187">
         <f>G198</f>
         <v>19890.591177600007</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="81" t="s">
@@ -44642,17 +44752,21 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>130.2912</v>
       </c>
-      <c r="K7" s="172" t="s">
+      <c r="H7">
+        <f>Table14[[#This Row],[A]]+D8</f>
+        <v>23.6</v>
+      </c>
+      <c r="K7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172">
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187">
         <f>G296</f>
         <v>17107.397424000003</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="81"/>
@@ -44676,17 +44790,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K8" s="173" t="s">
+      <c r="K8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="186">
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="202">
         <f>N5+N6+N7</f>
         <v>55552.527669600007</v>
       </c>
-      <c r="O8" s="187"/>
-      <c r="P8" s="188"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="204"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
@@ -44712,12 +44826,16 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>397.11671999999999</v>
       </c>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="191"/>
+      <c r="H9">
+        <f>Table14[[#This Row],[A]]+D10</f>
+        <v>38.28</v>
+      </c>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="206"/>
+      <c r="P9" s="207"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81"/>
@@ -44766,6 +44884,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>393.04512</v>
       </c>
+      <c r="H11">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="81" t="s">
@@ -44791,6 +44913,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>393.04512</v>
       </c>
+      <c r="H12">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="81" t="s">
@@ -44815,6 +44941,10 @@
       <c r="G13" s="15">
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>394.13087999999999</v>
+      </c>
+      <c r="H13" s="194">
+        <f>Table14[[#This Row],[A]]+D14+D15+D16</f>
+        <v>61.92</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -44839,6 +44969,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>25.515359999999994</v>
       </c>
+      <c r="H14" s="194"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="81"/>
@@ -44862,6 +44993,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>41.910336000000001</v>
       </c>
+      <c r="H15" s="194"/>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="81"/>
@@ -44885,8 +45017,9 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>60.802559999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="194"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="81" t="s">
         <v>440</v>
       </c>
@@ -44910,8 +45043,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>26.058240000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>6.4000000000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="81" t="s">
         <v>437</v>
       </c>
@@ -44935,8 +45072,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>24.103871999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="81" t="s">
         <v>105</v>
       </c>
@@ -44960,8 +45101,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>465.79104000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="194">
+        <f>Table14[[#This Row],[A]]+D20</f>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="81"/>
       <c r="B20" s="82" t="s">
         <v>439</v>
@@ -44983,8 +45128,9 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>13.843440000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="194"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="81" t="s">
         <v>438</v>
       </c>
@@ -45008,8 +45154,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>42.344639999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <f>Table14[[#This Row],[A]]+D22</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81"/>
       <c r="B22" s="82" t="s">
         <v>64</v>
@@ -45032,7 +45182,7 @@
         <v>158.24951999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="81" t="s">
         <v>40</v>
       </c>
@@ -45056,8 +45206,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>155.26367999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <f>Table14[[#This Row],[A]]+D24+D25</f>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="81"/>
       <c r="B24" s="82" t="s">
         <v>345</v>
@@ -45080,7 +45234,7 @@
         <v>97.718400000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="81"/>
       <c r="B25" s="82" t="s">
         <v>120</v>
@@ -45103,7 +45257,7 @@
         <v>7.0574399999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="81" t="s">
         <v>345</v>
       </c>
@@ -45127,8 +45281,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>451.67615999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <f>Table14[[#This Row],[A]]+D27</f>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="81"/>
       <c r="B27" s="82" t="s">
         <v>120</v>
@@ -45151,7 +45309,7 @@
         <v>119.4336</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="81" t="s">
         <v>347</v>
       </c>
@@ -45175,8 +45333,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>62.702639999999988</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <f>Table14[[#This Row],[A]]+D29</f>
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="81"/>
       <c r="B29" s="82" t="s">
         <v>64</v>
@@ -45199,7 +45361,7 @@
         <v>809.16264000000012</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="81" t="s">
         <v>441</v>
       </c>
@@ -45223,8 +45385,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>182.40768</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="81" t="s">
         <v>442</v>
       </c>
@@ -45248,8 +45414,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>676.59134400000016</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>45.320000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="81" t="s">
         <v>349</v>
       </c>
@@ -45273,8 +45443,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>653.89895999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>43.800000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="81" t="s">
         <v>120</v>
       </c>
@@ -45298,8 +45472,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>48.859200000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <f>Table14[[#This Row],[A]]+D34+D35</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="81"/>
       <c r="B34" s="82" t="s">
         <v>308</v>
@@ -45322,7 +45500,7 @@
         <v>26.87256</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="81"/>
       <c r="B35" s="82" t="s">
         <v>64</v>
@@ -45345,7 +45523,7 @@
         <v>198.69407999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81" t="s">
         <v>37</v>
       </c>
@@ -45369,8 +45547,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>23.615279999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <f>Table14[[#This Row],[A]]+D37+D38</f>
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="81"/>
       <c r="B37" s="82" t="s">
         <v>443</v>
@@ -45393,7 +45575,7 @@
         <v>59.445360000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="81"/>
       <c r="B38" s="82" t="s">
         <v>444</v>
@@ -45416,7 +45598,7 @@
         <v>19.706544000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="81" t="s">
         <v>308</v>
       </c>
@@ -45440,8 +45622,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>18.72936</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <f>Table14[[#This Row],[A]]+D40</f>
+        <v>20.599999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="81"/>
       <c r="B40" s="82" t="s">
         <v>64</v>
@@ -45464,7 +45650,7 @@
         <v>238.86719999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="81" t="s">
         <v>443</v>
       </c>
@@ -45488,8 +45674,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>24.429600000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <f>Table14[[#This Row],[A]]+D42</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="81"/>
       <c r="B42" s="82" t="s">
         <v>445</v>
@@ -45512,7 +45702,7 @@
         <v>27.686879999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="81" t="s">
         <v>446</v>
       </c>
@@ -45536,8 +45726,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>140.33447999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="81" t="s">
         <v>447</v>
       </c>
@@ -45561,8 +45755,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>58.305312000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <f>Table14[[#This Row],[A]]+D45+D46</f>
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="81"/>
       <c r="B45" s="82" t="s">
         <v>449</v>
@@ -45585,7 +45783,7 @@
         <v>78.989039999999989</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="81"/>
       <c r="B46" s="82" t="s">
         <v>64</v>
@@ -45608,7 +45806,7 @@
         <v>324.262224</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="81" t="s">
         <v>36</v>
       </c>
@@ -45632,8 +45830,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>41.530319999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <f>Table14[[#This Row],[A]]+D48+D49</f>
+        <v>29.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="81"/>
       <c r="B48" s="82" t="s">
         <v>449</v>
@@ -45703,6 +45905,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>116.39347199999999</v>
       </c>
+      <c r="H50">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>10.719999999999999</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="81" t="s">
@@ -45728,6 +45934,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>412.58879999999999</v>
       </c>
+      <c r="H51">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="81" t="s">
@@ -45753,6 +45963,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>423.98928000000001</v>
       </c>
+      <c r="H52">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>28.400000000000002</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="81" t="s">
@@ -45778,6 +45992,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>274.69728000000003</v>
       </c>
+      <c r="H53">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>18.400000000000002</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="81" t="s">
@@ -45803,6 +46021,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>423.98928000000001</v>
       </c>
+      <c r="H54">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>28.400000000000002</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="81" t="s">
@@ -45828,6 +46050,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>133.76563200000001</v>
       </c>
+      <c r="H55">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>8.9600000000000009</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="81" t="s">
@@ -45853,7 +46079,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>286.64063999999996</v>
       </c>
-      <c r="H56" s="118"/>
+      <c r="H56" s="118">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>19.2</v>
+      </c>
       <c r="I56" s="118"/>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -45880,6 +46109,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>244.83887999999996</v>
       </c>
+      <c r="H57">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>16.399999999999999</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="81" t="s">
@@ -45905,6 +46138,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>278.28028799999998</v>
       </c>
+      <c r="H58">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>18.64</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="81" t="s">
@@ -45930,6 +46167,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>137.34864000000002</v>
       </c>
+      <c r="H59">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>9.2000000000000011</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="81" t="s">
@@ -45955,6 +46196,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>427.57228799999996</v>
       </c>
+      <c r="H60">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>28.64</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="81" t="s">
@@ -45980,6 +46225,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>427.57228799999996</v>
       </c>
+      <c r="H61">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>28.64</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="81" t="s">
@@ -46005,6 +46254,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>358.30079999999998</v>
       </c>
+      <c r="H62">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="81" t="s">
@@ -46030,6 +46283,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>176.91101999999998</v>
       </c>
+      <c r="H63">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>11.85</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="81" t="s">
@@ -46055,8 +46312,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>177.95606399999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>11.919999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="81" t="s">
         <v>367</v>
       </c>
@@ -46080,8 +46341,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>1003.24224</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="81" t="s">
         <v>369</v>
       </c>
@@ -46105,8 +46370,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>250.81056000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H66">
+        <f>Table14[[#This Row],[A]]+D67</f>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="81"/>
       <c r="B67" s="82" t="s">
         <v>58</v>
@@ -46129,7 +46398,7 @@
         <v>48.859200000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="81" t="s">
         <v>370</v>
       </c>
@@ -46153,8 +46422,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>223.93799999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H68">
+        <f>Table14[[#This Row],[A]]+D69</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="81"/>
       <c r="B69" s="82" t="s">
         <v>57</v>
@@ -46177,7 +46450,7 @@
         <v>48.859200000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="81" t="s">
         <v>58</v>
       </c>
@@ -46201,8 +46474,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>358.30079999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="81" t="s">
         <v>57</v>
       </c>
@@ -46226,8 +46503,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>358.30079999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H71">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="81" t="s">
         <v>454</v>
       </c>
@@ -46251,8 +46532,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>355.91212800000005</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="81" t="s">
         <v>453</v>
       </c>
@@ -46276,8 +46561,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>376.21583999999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H73">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="81" t="s">
         <v>35</v>
       </c>
@@ -46301,8 +46590,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>48.044879999999992</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <f>Table14[[#This Row],[A]]+D75</f>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="81"/>
       <c r="B75" s="82" t="s">
         <v>64</v>
@@ -46325,7 +46618,7 @@
         <v>382.18751999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="81" t="s">
         <v>457</v>
       </c>
@@ -46349,8 +46642,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>656.88480000000004</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H76">
+        <f>Table14[[#This Row],[A]]+D77</f>
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="81"/>
       <c r="B77" s="82" t="s">
         <v>458</v>
@@ -46373,7 +46670,7 @@
         <v>48.044879999999992</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="81" t="s">
         <v>30</v>
       </c>
@@ -46397,8 +46694,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>261.885312</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H78" s="194">
+        <f>Table14[[#This Row],[Ti]]+E79</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="81"/>
       <c r="B79" s="82" t="s">
         <v>115</v>
@@ -46420,8 +46721,9 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>116.44775999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H79" s="194"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="81" t="s">
         <v>115</v>
       </c>
@@ -46444,6 +46746,10 @@
       <c r="G80" s="15">
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>1469.6304480000003</v>
+      </c>
+      <c r="H80" s="194">
+        <f>Table14[[#This Row],[A]]+D81+D82+D83+D84</f>
+        <v>141.44000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -46468,6 +46774,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>49.347791999999998</v>
       </c>
+      <c r="H81" s="194"/>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="81"/>
@@ -46491,6 +46798,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>24.918191999999998</v>
       </c>
+      <c r="H82" s="194"/>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="81"/>
@@ -46514,6 +46822,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>68.240015999999997</v>
       </c>
+      <c r="H83" s="194"/>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="81"/>
@@ -46537,6 +46846,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>32.572800000000001</v>
       </c>
+      <c r="H84" s="194"/>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="81" t="s">
@@ -46561,6 +46871,10 @@
       <c r="G85" s="15">
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>192.88526400000001</v>
+      </c>
+      <c r="H85" s="211">
+        <f>Table14[[#This Row],[A]]+D86+D87</f>
+        <v>24.76</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -46585,6 +46899,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>20.520864</v>
       </c>
+      <c r="H86" s="211"/>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="81"/>
@@ -46608,6 +46923,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>73.831679999999992</v>
       </c>
+      <c r="H87" s="211"/>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="81" t="s">
@@ -46633,6 +46949,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>58.631039999999999</v>
       </c>
+      <c r="H88">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>5.4</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="83" t="s">
@@ -46658,6 +46978,10 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>20.032271999999999</v>
       </c>
+      <c r="H89">
+        <f>Table14[[#This Row],[A]]</f>
+        <v>4.92</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F90" s="41" t="s">
@@ -46669,15 +46993,15 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="167" t="s">
+      <c r="A93" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="167"/>
-      <c r="C93" s="167"/>
-      <c r="D93" s="167"/>
-      <c r="E93" s="167"/>
-      <c r="F93" s="167"/>
-      <c r="G93" s="167"/>
+      <c r="B93" s="182"/>
+      <c r="C93" s="182"/>
+      <c r="D93" s="182"/>
+      <c r="E93" s="182"/>
+      <c r="F93" s="182"/>
+      <c r="G93" s="182"/>
       <c r="H93" s="103"/>
       <c r="I93" s="103"/>
     </row>
@@ -49219,15 +49543,15 @@
       </c>
     </row>
     <row r="200" spans="1:9" s="118" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A200" s="168" t="s">
+      <c r="A200" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B200" s="168"/>
-      <c r="C200" s="168"/>
-      <c r="D200" s="168"/>
-      <c r="E200" s="168"/>
-      <c r="F200" s="168"/>
-      <c r="G200" s="168"/>
+      <c r="B200" s="183"/>
+      <c r="C200" s="183"/>
+      <c r="D200" s="183"/>
+      <c r="E200" s="183"/>
+      <c r="F200" s="183"/>
+      <c r="G200" s="183"/>
       <c r="H200" s="106"/>
       <c r="I200" s="106"/>
     </row>
@@ -51546,7 +51870,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H80:H84"/>
+    <mergeCell ref="H78:H79"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A93:G93"/>
@@ -51562,9 +51890,10 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="K8:M9"/>
     <mergeCell ref="N8:P9"/>
+    <mergeCell ref="H13:H16"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:F89">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51580,10 +51909,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51600,37 +51929,37 @@
     <col min="10" max="11" width="9.109375" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="184" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
       <c r="J1" s="104"/>
       <c r="K1" s="104"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167" t="s">
+    <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
       <c r="J2" s="103"/>
       <c r="K2" s="103"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
         <v>19</v>
       </c>
@@ -51658,19 +51987,22 @@
       <c r="I3" s="93" t="s">
         <v>416</v>
       </c>
-      <c r="J3" s="202" t="s">
+      <c r="J3" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="172" t="s">
         <v>556</v>
       </c>
-      <c r="O3" s="182" t="s">
+      <c r="N3" s="198" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="94" t="s">
         <v>55</v>
       </c>
@@ -51701,24 +52033,27 @@
         <f t="shared" ref="I4:I40" si="1">ABS(3000*C4*(F4-G4))</f>
         <v>463.49481599999996</v>
       </c>
-      <c r="J4" s="198">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
-      </c>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
+      <c r="J4" s="168">
+        <v>16.3</v>
+      </c>
+      <c r="K4" s="168">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.98159509202453987</v>
+      </c>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="133" t="s">
+        <v>541</v>
+      </c>
       <c r="R4" s="133" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="S4" s="133" t="s">
-        <v>542</v>
-      </c>
-      <c r="T4" s="133" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="94" t="s">
         <v>102</v>
       </c>
@@ -51750,28 +52085,31 @@
         <v>1338.7939199999998</v>
       </c>
       <c r="J5" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>15</v>
-      </c>
-      <c r="O5" s="184" t="s">
+        <v>23.4</v>
+      </c>
+      <c r="K5" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="N5" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="82">
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="82">
         <f>H41</f>
         <v>9262.7920000000013</v>
       </c>
-      <c r="S5" s="82">
+      <c r="R5" s="82">
         <f>I41</f>
         <v>18303.154668000006</v>
       </c>
-      <c r="T5" s="82">
-        <f>R5+S5</f>
+      <c r="S5" s="82">
+        <f>Q5+R5</f>
         <v>27565.946668000008</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="94" t="s">
         <v>487</v>
       </c>
@@ -51803,28 +52141,31 @@
         <v>1158.73704</v>
       </c>
       <c r="J6" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
-      </c>
-      <c r="O6" s="184" t="s">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="K6" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.30464584920030463</v>
+      </c>
+      <c r="N6" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="82">
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="82">
         <f>H90</f>
         <v>20168.763999999999</v>
       </c>
-      <c r="S6" s="82">
+      <c r="R6" s="82">
         <f>I90</f>
         <v>39472.195050000002</v>
       </c>
-      <c r="T6" s="82">
-        <f>R6+S6</f>
+      <c r="S6" s="82">
+        <f>Q6+R6</f>
         <v>59640.959050000005</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="94" t="s">
         <v>345</v>
       </c>
@@ -51856,28 +52197,31 @@
         <v>217.263195</v>
       </c>
       <c r="J7" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="O7" s="184" t="s">
+        <v>31.3</v>
+      </c>
+      <c r="K7" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.23961661341853036</v>
+      </c>
+      <c r="N7" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="82">
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="82">
         <f>H127</f>
         <v>13106.016</v>
       </c>
-      <c r="S7" s="82">
+      <c r="R7" s="82">
         <f>I127</f>
         <v>25681.30218000001</v>
       </c>
-      <c r="T7" s="82">
-        <f>R7+S7</f>
+      <c r="S7" s="82">
+        <f>Q7+R7</f>
         <v>38787.318180000009</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="94" t="s">
         <v>347</v>
       </c>
@@ -51909,28 +52253,31 @@
         <v>463.49481599999996</v>
       </c>
       <c r="J8" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
-      </c>
-      <c r="O8" s="173" t="s">
+        <v>20.7</v>
+      </c>
+      <c r="K8" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.77294685990338163</v>
+      </c>
+      <c r="N8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="174">
+      <c r="O8" s="188"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="192">
+        <f>SUM(Q5:Q7)</f>
+        <v>42537.572</v>
+      </c>
+      <c r="R8" s="192">
         <f>SUM(R5:R7)</f>
-        <v>42537.572</v>
-      </c>
-      <c r="S8" s="174">
-        <f>SUM(S5:S7)</f>
         <v>83456.651898000026</v>
       </c>
-      <c r="T8" s="174">
-        <f>T5+T6+T7</f>
+      <c r="S8" s="192">
+        <f>S5+S6+S7</f>
         <v>125994.22389800003</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="94" t="s">
         <v>488</v>
       </c>
@@ -51962,17 +52309,20 @@
         <v>144.84213</v>
       </c>
       <c r="J9" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36.6</v>
+      </c>
+      <c r="K9" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.13661202185792348</v>
+      </c>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="94" t="s">
         <v>489</v>
       </c>
@@ -52004,11 +52354,14 @@
         <v>463.49481599999996</v>
       </c>
       <c r="J10" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K10" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.93567251461988299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="94" t="s">
         <v>490</v>
       </c>
@@ -52040,47 +52393,51 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J11" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="199" t="s">
+        <v>11.6</v>
+      </c>
+      <c r="K11" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.21551724137931036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="200">
+      <c r="B12" s="170">
         <v>14</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="170">
         <f>B12*References!AS12</f>
         <v>112</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="170">
         <v>34.5</v>
       </c>
-      <c r="E12" s="200">
-        <v>22.5</v>
-      </c>
-      <c r="F12" s="200">
+      <c r="E12" s="170">
+        <v>22.5</v>
+      </c>
+      <c r="F12" s="170">
         <v>1.8136751999999999E-2</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="170">
         <v>8.4806099999999995E-3</v>
       </c>
-      <c r="H12" s="200">
+      <c r="H12" s="170">
         <f t="shared" si="0"/>
         <v>1655.808</v>
       </c>
-      <c r="I12" s="201">
+      <c r="I12" s="171">
         <f t="shared" si="1"/>
         <v>3244.4637119999998</v>
       </c>
-      <c r="J12" s="200">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="95"/>
+      <c r="K12" s="95" t="e">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="94" t="s">
         <v>120</v>
       </c>
@@ -52112,11 +52469,14 @@
         <v>1190.0390399999999</v>
       </c>
       <c r="J13" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32.9</v>
+      </c>
+      <c r="K13" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>1.21580547112462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="94" t="s">
         <v>451</v>
       </c>
@@ -52148,11 +52508,14 @@
         <v>144.84213</v>
       </c>
       <c r="J14" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K14" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="94" t="s">
         <v>451</v>
       </c>
@@ -52184,11 +52547,14 @@
         <v>144.84213</v>
       </c>
       <c r="J15" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K15" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="94" t="s">
         <v>455</v>
       </c>
@@ -52220,11 +52586,14 @@
         <v>144.84213</v>
       </c>
       <c r="J16" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K16" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="94" t="s">
         <v>455</v>
       </c>
@@ -52256,11 +52625,14 @@
         <v>144.84213</v>
       </c>
       <c r="J17" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K17" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="94" t="s">
         <v>76</v>
       </c>
@@ -52292,11 +52664,14 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J18" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="K18" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="94" t="s">
         <v>75</v>
       </c>
@@ -52328,11 +52703,14 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J19" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="K19" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="94" t="s">
         <v>72</v>
       </c>
@@ -52364,11 +52742,14 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J20" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.6</v>
+      </c>
+      <c r="K20" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.44642857142857145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="94" t="s">
         <v>444</v>
       </c>
@@ -52400,11 +52781,14 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J21" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.1</v>
+      </c>
+      <c r="K21" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.27472527472527475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="94" t="s">
         <v>443</v>
       </c>
@@ -52436,11 +52820,14 @@
         <v>231.74740799999998</v>
       </c>
       <c r="J22" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="K22" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="94" t="s">
         <v>491</v>
       </c>
@@ -52472,11 +52859,14 @@
         <v>695.24222399999996</v>
       </c>
       <c r="J23" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25.3</v>
+      </c>
+      <c r="K23" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.9486166007905138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="94" t="s">
         <v>452</v>
       </c>
@@ -52508,11 +52898,14 @@
         <v>144.84213</v>
       </c>
       <c r="J24" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K24" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="94" t="s">
         <v>452</v>
       </c>
@@ -52544,11 +52937,14 @@
         <v>144.84213</v>
       </c>
       <c r="J25" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K25" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="94" t="s">
         <v>495</v>
       </c>
@@ -52580,11 +52976,14 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J26" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="K26" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="94" t="s">
         <v>456</v>
       </c>
@@ -52616,11 +53015,14 @@
         <v>144.84213</v>
       </c>
       <c r="J27" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K27" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="94" t="s">
         <v>456</v>
       </c>
@@ -52652,11 +53054,14 @@
         <v>144.84213</v>
       </c>
       <c r="J28" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14.4</v>
+      </c>
+      <c r="K28" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="94" t="s">
         <v>369</v>
       </c>
@@ -52688,11 +53093,14 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J29" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.6</v>
+      </c>
+      <c r="K29" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.18382352941176472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="94" t="s">
         <v>367</v>
       </c>
@@ -52724,11 +53132,14 @@
         <v>289.68425999999999</v>
       </c>
       <c r="J30" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K30" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.28328611898016998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="94" t="s">
         <v>370</v>
       </c>
@@ -52760,11 +53171,14 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J31" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.6</v>
+      </c>
+      <c r="K31" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.18382352941176472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="94" t="s">
         <v>494</v>
       </c>
@@ -52796,8 +53210,11 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J32" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
+        <v>10.4</v>
+      </c>
+      <c r="K32" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.24038461538461536</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -52832,8 +53249,11 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J33" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
+        <v>11.6</v>
+      </c>
+      <c r="K33" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.21551724137931036</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -52868,8 +53288,11 @@
         <v>463.49481599999996</v>
       </c>
       <c r="J34" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K34" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.83769633507853392</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -52904,8 +53327,11 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J35" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
+        <v>5.7</v>
+      </c>
+      <c r="K35" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.43859649122807015</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -52940,8 +53366,11 @@
         <v>72.421064999999999</v>
       </c>
       <c r="J36" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K36" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.27173913043478265</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -52975,9 +53404,10 @@
         <f t="shared" si="1"/>
         <v>289.68425999999999</v>
       </c>
-      <c r="J37" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95" t="e">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -53012,8 +53442,11 @@
         <v>1158.73704</v>
       </c>
       <c r="J38" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
+        <v>123.1</v>
+      </c>
+      <c r="K38" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.32493907392363935</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -53048,8 +53481,11 @@
         <v>217.263195</v>
       </c>
       <c r="J39" s="95">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>2.5</v>
+        <v>27</v>
+      </c>
+      <c r="K39" s="95">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -53084,8 +53520,11 @@
         <v>4244.8881599999995</v>
       </c>
       <c r="J40" s="98">
-        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Occ]]</f>
-        <v>8</v>
+        <v>181.7</v>
+      </c>
+      <c r="K40" s="98">
+        <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
+        <v>0.88057237204182726</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="118" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -53110,10 +53549,10 @@
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G42" s="193" t="s">
+      <c r="G42" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="193"/>
+      <c r="H42" s="208"/>
       <c r="I42" s="128">
         <f>H41+I41</f>
         <v>27565.946668000008</v>
@@ -53133,17 +53572,17 @@
       <c r="K43" s="124"/>
     </row>
     <row r="44" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="182"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="182"/>
       <c r="J44" s="103"/>
       <c r="K44" s="103"/>
     </row>
@@ -53175,7 +53614,7 @@
       <c r="I45" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="J45" s="197" t="s">
+      <c r="J45" s="167" t="s">
         <v>556</v>
       </c>
     </row>
@@ -53211,7 +53650,7 @@
         <f t="shared" ref="I46:I89" si="3">ABS(3000*C46*(F46-G46))</f>
         <v>1882.9473</v>
       </c>
-      <c r="J46" s="198">
+      <c r="J46" s="168">
         <f>Table18[[#This Row],[L/s]]/Table18[[#This Row],[Occ.]]</f>
         <v>13</v>
       </c>
@@ -53513,38 +53952,38 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="199" t="s">
+      <c r="A55" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="200">
+      <c r="B55" s="170">
         <v>5</v>
       </c>
-      <c r="C55" s="200">
+      <c r="C55" s="170">
         <f>B55*References!AT13</f>
         <v>40</v>
       </c>
-      <c r="D55" s="200">
+      <c r="D55" s="170">
         <v>34.5</v>
       </c>
-      <c r="E55" s="200">
-        <v>22.5</v>
-      </c>
-      <c r="F55" s="200">
+      <c r="E55" s="170">
+        <v>22.5</v>
+      </c>
+      <c r="F55" s="170">
         <v>1.813675E-2</v>
       </c>
-      <c r="G55" s="200">
+      <c r="G55" s="170">
         <f t="shared" si="4"/>
         <v>8.4806099999999995E-3</v>
       </c>
-      <c r="H55" s="200">
+      <c r="H55" s="170">
         <f t="shared" si="2"/>
         <v>591.36</v>
       </c>
-      <c r="I55" s="201">
+      <c r="I55" s="171">
         <f t="shared" si="3"/>
         <v>1158.7368000000001</v>
       </c>
-      <c r="J55" s="200">
+      <c r="J55" s="170">
         <f>Table18[[#This Row],[L/s]]/Table18[[#This Row],[Occ.]]</f>
         <v>8</v>
       </c>
@@ -54821,10 +55260,10 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G91" s="193" t="s">
+      <c r="G91" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="H91" s="193"/>
+      <c r="H91" s="208"/>
       <c r="I91" s="128">
         <f>H90+I90</f>
         <v>59640.959050000005</v>
@@ -54844,17 +55283,17 @@
       <c r="K92" s="124"/>
     </row>
     <row r="93" spans="1:11" s="105" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A93" s="168" t="s">
+      <c r="A93" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="168"/>
-      <c r="C93" s="168"/>
-      <c r="D93" s="168"/>
-      <c r="E93" s="168"/>
-      <c r="F93" s="168"/>
-      <c r="G93" s="168"/>
-      <c r="H93" s="168"/>
-      <c r="I93" s="168"/>
+      <c r="B93" s="183"/>
+      <c r="C93" s="183"/>
+      <c r="D93" s="183"/>
+      <c r="E93" s="183"/>
+      <c r="F93" s="183"/>
+      <c r="G93" s="183"/>
+      <c r="H93" s="183"/>
+      <c r="I93" s="183"/>
       <c r="J93" s="106"/>
       <c r="K93" s="106"/>
     </row>
@@ -54886,7 +55325,7 @@
       <c r="I94" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="J94" s="197" t="s">
+      <c r="J94" s="167" t="s">
         <v>556</v>
       </c>
     </row>
@@ -54922,7 +55361,7 @@
         <f t="shared" ref="I95:I124" si="6">ABS(3000*C95*(F95-G95))</f>
         <v>1883.0058000000001</v>
       </c>
-      <c r="J95" s="198">
+      <c r="J95" s="168">
         <f>Table19[[#This Row],[L/s]]/Table19[[#This Row],[Occ.]]</f>
         <v>13</v>
       </c>
@@ -56088,10 +56527,10 @@
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G128" s="193" t="s">
+      <c r="G128" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="H128" s="193"/>
+      <c r="H128" s="208"/>
       <c r="I128" s="128">
         <f>H127+I127</f>
         <v>38787.318180000009</v>
@@ -56099,22 +56538,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="G128:H128"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="A93:I93"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G91:H91"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -56147,29 +56586,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
       <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -56203,14 +56642,14 @@
       <c r="J3" s="101" t="s">
         <v>558</v>
       </c>
-      <c r="N3" s="182" t="s">
+      <c r="N3" s="198" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="94" t="s">
@@ -56239,17 +56678,17 @@
         <f t="shared" ref="H4:H40" si="1">C4*E4*F4</f>
         <v>25.76</v>
       </c>
-      <c r="I4" s="198">
+      <c r="I4" s="168">
         <f>Table22[[#This Row],[Qs (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>38.64</v>
       </c>
-      <c r="J4" s="198">
+      <c r="J4" s="168">
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>12.88</v>
       </c>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
       <c r="Q4" s="133" t="s">
         <v>541</v>
       </c>
@@ -56295,11 +56734,11 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>23</v>
       </c>
-      <c r="N5" s="184" t="s">
+      <c r="N5" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
       <c r="Q5" s="82">
         <f>G41</f>
         <v>6432.18</v>
@@ -56348,11 +56787,11 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>7.3600000000000012</v>
       </c>
-      <c r="N6" s="184" t="s">
+      <c r="N6" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
       <c r="Q6" s="82">
         <f>G90</f>
         <v>8765.2999999999993</v>
@@ -56401,11 +56840,11 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>23</v>
       </c>
-      <c r="N7" s="184" t="s">
+      <c r="N7" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
       <c r="Q7" s="82">
         <f>G127</f>
         <v>4519.5</v>
@@ -56454,20 +56893,20 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>34.5</v>
       </c>
-      <c r="N8" s="173" t="s">
+      <c r="N8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="174">
+      <c r="O8" s="188"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="192">
         <f>SUM(Q5:Q7)</f>
         <v>19716.98</v>
       </c>
-      <c r="R8" s="174">
+      <c r="R8" s="192">
         <f>SUM(R5:R7)</f>
         <v>10453.359999999999</v>
       </c>
-      <c r="S8" s="174">
+      <c r="S8" s="192">
         <f>S5+S6+S7</f>
         <v>30170.339999999997</v>
       </c>
@@ -56507,12 +56946,12 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>31.05</v>
       </c>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="94" t="s">
@@ -57343,29 +57782,29 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="169" t="s">
         <v>453</v>
       </c>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="200">
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170">
         <v>0.92</v>
       </c>
-      <c r="G33" s="200">
+      <c r="G33" s="170">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="201">
+      <c r="H33" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="200" t="e">
+      <c r="I33" s="170" t="e">
         <f>Table22[[#This Row],[Qs (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="200" t="e">
+      <c r="J33" s="170" t="e">
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -57636,26 +58075,26 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F42" s="193" t="s">
+      <c r="F42" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="193"/>
+      <c r="G42" s="208"/>
       <c r="H42" s="128">
         <f>G41+H41</f>
         <v>8320.9399999999987</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="182"/>
+      <c r="H44" s="182"/>
       <c r="I44" s="103"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -57717,11 +58156,11 @@
         <f>B46*C46*E46</f>
         <v>87.5</v>
       </c>
-      <c r="I46" s="196">
+      <c r="I46" s="166">
         <f>Table21[[#This Row],[Qs (W)]]/Table21[[#This Row],[Occ]]</f>
         <v>48.3</v>
       </c>
-      <c r="J46" s="196">
+      <c r="J46" s="166">
         <f>Table21[[#This Row],[Ql (W)]]/Table21[[#This Row],[Occ]]</f>
         <v>17.5</v>
       </c>
@@ -58015,10 +58454,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="199" t="s">
+      <c r="A55" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="200">
+      <c r="B55" s="170">
         <v>5</v>
       </c>
       <c r="C55" s="152">
@@ -59288,26 +59727,26 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F91" s="193" t="s">
+      <c r="F91" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="193"/>
+      <c r="G91" s="208"/>
       <c r="H91" s="128">
         <f>G90+H90</f>
         <v>15197.8</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A93" s="168" t="s">
+      <c r="A93" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="168"/>
-      <c r="C93" s="168"/>
-      <c r="D93" s="168"/>
-      <c r="E93" s="168"/>
-      <c r="F93" s="168"/>
-      <c r="G93" s="168"/>
-      <c r="H93" s="168"/>
+      <c r="B93" s="183"/>
+      <c r="C93" s="183"/>
+      <c r="D93" s="183"/>
+      <c r="E93" s="183"/>
+      <c r="F93" s="183"/>
+      <c r="G93" s="183"/>
+      <c r="H93" s="183"/>
       <c r="I93" s="106"/>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -59369,11 +59808,11 @@
         <f>B95*C95*E95*F95</f>
         <v>80.5</v>
       </c>
-      <c r="I95" s="196">
+      <c r="I95" s="166">
         <f>Table20[[#This Row],[Qs (W)]]/Table20[[#This Row],[Occ]]</f>
         <v>48.3</v>
       </c>
-      <c r="J95" s="196">
+      <c r="J95" s="166">
         <f>Table20[[#This Row],[Ql (W)]]/Table20[[#This Row],[Occ]]</f>
         <v>16.100000000000001</v>
       </c>
@@ -60508,10 +60947,10 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F128" s="193" t="s">
+      <c r="F128" s="208" t="s">
         <v>534</v>
       </c>
-      <c r="G128" s="193"/>
+      <c r="G128" s="208"/>
       <c r="H128" s="128">
         <f>G127+H127</f>
         <v>6651.6</v>
@@ -60519,11 +60958,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F91:G91"/>
     <mergeCell ref="F128:G128"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:P4"/>
@@ -60535,6 +60969,11 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F91:G91"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60550,8 +60989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60562,28 +61001,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
       <c r="H1" s="129"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="209" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
       <c r="H2" s="103"/>
       <c r="I2" s="103"/>
     </row>
@@ -60610,14 +61049,14 @@
         <v>23</v>
       </c>
       <c r="H3" s="85"/>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="185" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
@@ -60644,14 +61083,14 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H4" s="85"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171" t="s">
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="81" t="s">
@@ -60678,17 +61117,17 @@
         <v>4.21875</v>
       </c>
       <c r="H5" s="112"/>
-      <c r="K5" s="172" t="s">
+      <c r="K5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172">
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187">
         <f>G63</f>
         <v>1147.9227799999999</v>
       </c>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
@@ -60715,17 +61154,17 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H6" s="85"/>
-      <c r="K6" s="172" t="s">
+      <c r="K6" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172">
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187">
         <f>G137</f>
         <v>1229.8197599999994</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="81"/>
@@ -60750,17 +61189,17 @@
         <v>3.8515200000000003</v>
       </c>
       <c r="H7" s="85"/>
-      <c r="K7" s="172" t="s">
+      <c r="K7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172">
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187">
         <f>G201</f>
         <v>1068.55</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="81" t="s">
@@ -60787,17 +61226,17 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H8" s="85"/>
-      <c r="K8" s="173" t="s">
+      <c r="K8" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="186">
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="202">
         <f>N5+N6+N7</f>
         <v>3446.2925399999995</v>
       </c>
-      <c r="O8" s="187"/>
-      <c r="P8" s="188"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="204"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
@@ -60824,12 +61263,12 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H9" s="85"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="191"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="206"/>
+      <c r="P9" s="207"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
@@ -62185,15 +62624,15 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="194" t="s">
+      <c r="A65" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="194"/>
-      <c r="C65" s="194"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="194"/>
+      <c r="B65" s="209"/>
+      <c r="C65" s="209"/>
+      <c r="D65" s="209"/>
+      <c r="E65" s="209"/>
+      <c r="F65" s="209"/>
+      <c r="G65" s="209"/>
       <c r="H65" s="130"/>
       <c r="I65" s="118"/>
     </row>
@@ -65550,22 +65989,22 @@
     <mergeCell ref="N8:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:H62">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135:G136 D67:H134 C67:C136">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>$I$65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141:H200">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>$J$182</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:C200">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>$J$182</formula>
     </cfRule>
   </conditionalFormatting>
